--- a/Excell/A0.xlsx
+++ b/Excell/A0.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Number</t>
   </si>
@@ -22,12 +22,27 @@
     <t>Definition and e.g(exempli gratia)</t>
   </si>
   <si>
+    <t xml:space="preserve"> Auxiliary Verbs </t>
+  </si>
+  <si>
+    <t>a verb used in forming the tenses, moods, and voices of other verbs.
+Auxiliary verbs are helping verbs. 
+They do not have separate meanings and are only used with other verbs to make questions, negation, different tenses, etc. 
+Here are the major auxiliary verbs in English:
+    Be
+    Do
+    Have</t>
+  </si>
+  <si>
     <t>a.m.</t>
   </si>
   <si>
     <t>am stands for the Latin ante meridiem, translating to "before midday". 
 This is the time before noon. 
 pm stands for post meridiem or "after midday" – the time after noon.</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org</t>
   </si>
   <si>
     <t>Abbreviation</t>
@@ -80,6 +95,9 @@
 dependent clause + independent clause = complete thought
 A dependent clause may come before or after the independent clause, so this sentence is just as accurate.
 Emma ate a sandwich after she arrived home.</t>
+  </si>
+  <si>
+    <t>collocation</t>
   </si>
   <si>
     <t>conj.</t>
@@ -147,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -197,6 +215,10 @@
       <sz val="14.0"/>
       <color theme="1"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="15.0"/>
@@ -324,15 +346,6 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -341,31 +354,40 @@
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -380,10 +402,10 @@
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -658,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -691,13 +713,11 @@
       <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -724,13 +744,17 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -758,13 +782,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -792,13 +816,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -826,13 +850,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -860,13 +884,11 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -899,8 +921,8 @@
       <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -930,11 +952,11 @@
       <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -964,11 +986,11 @@
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1001,8 +1023,8 @@
       <c r="C12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1032,9 +1054,11 @@
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1062,13 +1086,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
+      <c r="C14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1095,10 +1119,12 @@
       <c r="A15" s="7">
         <v>14.0</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
+      <c r="B15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1122,11 +1148,17 @@
       <c r="Z15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
+      <c r="A16" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1151,10 +1183,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1179,10 +1211,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1207,10 +1239,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1236,9 +1268,9 @@
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1263,10 +1295,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1291,10 +1323,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1319,10 +1351,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1347,10 +1379,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1375,10 +1407,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1403,10 +1435,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1431,10 +1463,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1459,10 +1491,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1487,10 +1519,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1515,10 +1547,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1543,10 +1575,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1571,10 +1603,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1599,10 +1631,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1627,10 +1659,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1655,10 +1687,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -1683,10 +1715,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -1711,10 +1743,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -1739,10 +1771,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -1767,10 +1799,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -1795,10 +1827,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -1823,10 +1855,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -1851,10 +1883,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -1879,10 +1911,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -1907,10 +1939,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -1935,10 +1967,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -1963,10 +1995,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -1991,10 +2023,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -2019,10 +2051,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -2047,10 +2079,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -2075,10 +2107,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -2103,10 +2135,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -2131,10 +2163,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -2159,10 +2191,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -2187,10 +2219,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -2215,10 +2247,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -2243,10 +2275,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -2271,10 +2303,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -2299,10 +2331,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -2327,10 +2359,10 @@
     </row>
     <row r="59">
       <c r="A59" s="1"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="14"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -2355,10 +2387,10 @@
     </row>
     <row r="60">
       <c r="A60" s="1"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -2383,10 +2415,10 @@
     </row>
     <row r="61">
       <c r="A61" s="1"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -2411,10 +2443,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -2439,10 +2471,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -2467,10 +2499,10 @@
     </row>
     <row r="64">
       <c r="A64" s="1"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -2495,10 +2527,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -2523,10 +2555,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="14"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -2551,10 +2583,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -2579,10 +2611,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="14"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="11"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -2635,10 +2667,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="14"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -2663,10 +2695,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="14"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -2691,10 +2723,10 @@
     </row>
     <row r="72">
       <c r="A72" s="1"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -2719,10 +2751,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -2747,10 +2779,10 @@
     </row>
     <row r="74">
       <c r="A74" s="1"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -2775,10 +2807,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="14"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="11"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -2803,10 +2835,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -2831,10 +2863,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -2859,10 +2891,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -2887,10 +2919,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -2915,10 +2947,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -2943,10 +2975,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -2971,10 +3003,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
@@ -2999,10 +3031,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
@@ -3027,10 +3059,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
@@ -3055,10 +3087,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
@@ -3083,10 +3115,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
@@ -3111,10 +3143,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -3139,10 +3171,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
@@ -3167,10 +3199,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="14"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
@@ -3195,10 +3227,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="14"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -3223,10 +3255,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="14"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
@@ -3251,10 +3283,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -3279,10 +3311,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="14"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -3307,10 +3339,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
@@ -3335,10 +3367,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -3363,10 +3395,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -3391,10 +3423,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
@@ -3419,10 +3451,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -3447,10 +3479,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
@@ -3475,10 +3507,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
@@ -3503,10 +3535,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
@@ -3531,10 +3563,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="14"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
@@ -3559,10 +3591,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
@@ -3587,10 +3619,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="14"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="11"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
@@ -3615,10 +3647,10 @@
     </row>
     <row r="105">
       <c r="A105" s="1"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="14"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -3644,9 +3676,9 @@
     <row r="106">
       <c r="A106" s="1"/>
       <c r="B106" s="19"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="14"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
@@ -3671,10 +3703,10 @@
     </row>
     <row r="107">
       <c r="A107" s="1"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -3699,10 +3731,10 @@
     </row>
     <row r="108">
       <c r="A108" s="1"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -3727,10 +3759,10 @@
     </row>
     <row r="109">
       <c r="A109" s="1"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
@@ -3755,10 +3787,10 @@
     </row>
     <row r="110">
       <c r="A110" s="1"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -3783,10 +3815,10 @@
     </row>
     <row r="111">
       <c r="A111" s="1"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -3811,10 +3843,10 @@
     </row>
     <row r="112">
       <c r="A112" s="1"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
@@ -3839,10 +3871,10 @@
     </row>
     <row r="113">
       <c r="A113" s="1"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="14"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="11"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
@@ -3867,10 +3899,10 @@
     </row>
     <row r="114">
       <c r="A114" s="1"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="14"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="11"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
@@ -3895,10 +3927,10 @@
     </row>
     <row r="115">
       <c r="A115" s="1"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
@@ -3923,10 +3955,10 @@
     </row>
     <row r="116">
       <c r="A116" s="1"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="14"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="11"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
@@ -3951,10 +3983,10 @@
     </row>
     <row r="117">
       <c r="A117" s="1"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
@@ -3979,10 +4011,10 @@
     </row>
     <row r="118">
       <c r="A118" s="1"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="14"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="11"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
@@ -4007,10 +4039,10 @@
     </row>
     <row r="119">
       <c r="A119" s="1"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="14"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="11"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
@@ -4035,10 +4067,10 @@
     </row>
     <row r="120">
       <c r="A120" s="1"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="14"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="11"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
@@ -4063,10 +4095,10 @@
     </row>
     <row r="121">
       <c r="A121" s="1"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
@@ -4091,10 +4123,10 @@
     </row>
     <row r="122">
       <c r="A122" s="1"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
@@ -4119,10 +4151,10 @@
     </row>
     <row r="123">
       <c r="A123" s="1"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
@@ -4147,10 +4179,10 @@
     </row>
     <row r="124">
       <c r="A124" s="1"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
@@ -4175,10 +4207,10 @@
     </row>
     <row r="125">
       <c r="A125" s="1"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
@@ -4203,10 +4235,10 @@
     </row>
     <row r="126">
       <c r="A126" s="1"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
@@ -4231,10 +4263,10 @@
     </row>
     <row r="127">
       <c r="A127" s="1"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
@@ -4259,10 +4291,10 @@
     </row>
     <row r="128">
       <c r="A128" s="1"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
@@ -4287,10 +4319,10 @@
     </row>
     <row r="129">
       <c r="A129" s="1"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
@@ -4315,10 +4347,10 @@
     </row>
     <row r="130">
       <c r="A130" s="1"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="14"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="11"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
@@ -4343,10 +4375,10 @@
     </row>
     <row r="131">
       <c r="A131" s="1"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
@@ -4371,10 +4403,10 @@
     </row>
     <row r="132">
       <c r="A132" s="1"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
@@ -4399,10 +4431,10 @@
     </row>
     <row r="133">
       <c r="A133" s="1"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
@@ -4427,10 +4459,10 @@
     </row>
     <row r="134">
       <c r="A134" s="1"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
@@ -4455,10 +4487,10 @@
     </row>
     <row r="135">
       <c r="A135" s="1"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="14"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="11"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
@@ -4483,10 +4515,10 @@
     </row>
     <row r="136">
       <c r="A136" s="1"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
@@ -4511,10 +4543,10 @@
     </row>
     <row r="137">
       <c r="A137" s="1"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
@@ -4539,10 +4571,10 @@
     </row>
     <row r="138">
       <c r="A138" s="1"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="14"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="11"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
@@ -4567,10 +4599,10 @@
     </row>
     <row r="139">
       <c r="A139" s="1"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -4595,10 +4627,10 @@
     </row>
     <row r="140">
       <c r="A140" s="1"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
@@ -4623,10 +4655,10 @@
     </row>
     <row r="141">
       <c r="A141" s="1"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
@@ -4651,10 +4683,10 @@
     </row>
     <row r="142">
       <c r="A142" s="1"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
@@ -4679,10 +4711,10 @@
     </row>
     <row r="143">
       <c r="A143" s="1"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
@@ -4707,10 +4739,10 @@
     </row>
     <row r="144">
       <c r="A144" s="1"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
@@ -4735,10 +4767,10 @@
     </row>
     <row r="145">
       <c r="A145" s="1"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="14"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="11"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
@@ -4763,10 +4795,10 @@
     </row>
     <row r="146">
       <c r="A146" s="1"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
@@ -4791,10 +4823,10 @@
     </row>
     <row r="147">
       <c r="A147" s="1"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
+      <c r="B147" s="18"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
@@ -4819,10 +4851,10 @@
     </row>
     <row r="148">
       <c r="A148" s="1"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
+      <c r="B148" s="18"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
@@ -4847,10 +4879,10 @@
     </row>
     <row r="149">
       <c r="A149" s="1"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
@@ -4875,10 +4907,10 @@
     </row>
     <row r="150">
       <c r="A150" s="1"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
@@ -4903,10 +4935,10 @@
     </row>
     <row r="151">
       <c r="A151" s="1"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
@@ -4931,10 +4963,10 @@
     </row>
     <row r="152">
       <c r="A152" s="1"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="14"/>
+      <c r="B152" s="18"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="11"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
@@ -4959,10 +4991,10 @@
     </row>
     <row r="153">
       <c r="A153" s="1"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
@@ -4987,10 +5019,10 @@
     </row>
     <row r="154">
       <c r="A154" s="1"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
@@ -5015,10 +5047,10 @@
     </row>
     <row r="155">
       <c r="A155" s="1"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
@@ -5043,10 +5075,10 @@
     </row>
     <row r="156">
       <c r="A156" s="1"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
@@ -5071,10 +5103,10 @@
     </row>
     <row r="157">
       <c r="A157" s="1"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="14"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="11"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
@@ -5099,10 +5131,10 @@
     </row>
     <row r="158">
       <c r="A158" s="1"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
@@ -5127,10 +5159,10 @@
     </row>
     <row r="159">
       <c r="A159" s="1"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="14"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="11"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
@@ -5155,10 +5187,10 @@
     </row>
     <row r="160">
       <c r="A160" s="1"/>
-      <c r="B160" s="17"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
@@ -5183,10 +5215,10 @@
     </row>
     <row r="161">
       <c r="A161" s="1"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="14"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="11"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
@@ -5211,10 +5243,10 @@
     </row>
     <row r="162">
       <c r="A162" s="1"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
@@ -5239,10 +5271,10 @@
     </row>
     <row r="163">
       <c r="A163" s="1"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
+      <c r="B163" s="18"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
@@ -5267,10 +5299,10 @@
     </row>
     <row r="164">
       <c r="A164" s="1"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="14"/>
+      <c r="B164" s="18"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="11"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
@@ -5295,10 +5327,10 @@
     </row>
     <row r="165">
       <c r="A165" s="1"/>
-      <c r="B165" s="17"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="14"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="11"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
@@ -5323,10 +5355,10 @@
     </row>
     <row r="166">
       <c r="A166" s="1"/>
-      <c r="B166" s="17"/>
-      <c r="C166" s="18"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
+      <c r="B166" s="18"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
@@ -5351,10 +5383,10 @@
     </row>
     <row r="167">
       <c r="A167" s="1"/>
-      <c r="B167" s="17"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
+      <c r="B167" s="18"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
@@ -5379,10 +5411,10 @@
     </row>
     <row r="168">
       <c r="A168" s="1"/>
-      <c r="B168" s="17"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
+      <c r="B168" s="18"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
@@ -5407,10 +5439,10 @@
     </row>
     <row r="169">
       <c r="A169" s="1"/>
-      <c r="B169" s="17"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
+      <c r="B169" s="18"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
@@ -5435,10 +5467,10 @@
     </row>
     <row r="170">
       <c r="A170" s="1"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
@@ -5463,10 +5495,10 @@
     </row>
     <row r="171">
       <c r="A171" s="1"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
@@ -5491,10 +5523,10 @@
     </row>
     <row r="172">
       <c r="A172" s="1"/>
-      <c r="B172" s="17"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
@@ -5519,10 +5551,10 @@
     </row>
     <row r="173">
       <c r="A173" s="1"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
+      <c r="B173" s="18"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
@@ -5547,10 +5579,10 @@
     </row>
     <row r="174">
       <c r="A174" s="1"/>
-      <c r="B174" s="17"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="14"/>
+      <c r="B174" s="18"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="11"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
@@ -5575,10 +5607,10 @@
     </row>
     <row r="175">
       <c r="A175" s="1"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
+      <c r="B175" s="18"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
@@ -5603,10 +5635,10 @@
     </row>
     <row r="176">
       <c r="A176" s="1"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="14"/>
+      <c r="B176" s="18"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="11"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
@@ -5631,10 +5663,10 @@
     </row>
     <row r="177">
       <c r="A177" s="1"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="14"/>
+      <c r="B177" s="18"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="11"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
@@ -5659,10 +5691,10 @@
     </row>
     <row r="178">
       <c r="A178" s="1"/>
-      <c r="B178" s="17"/>
-      <c r="C178" s="18"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="14"/>
+      <c r="B178" s="18"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="11"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
@@ -5687,10 +5719,10 @@
     </row>
     <row r="179">
       <c r="A179" s="1"/>
-      <c r="B179" s="17"/>
-      <c r="C179" s="18"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="14"/>
+      <c r="B179" s="18"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="11"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
@@ -5715,10 +5747,10 @@
     </row>
     <row r="180">
       <c r="A180" s="1"/>
-      <c r="B180" s="17"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="14"/>
+      <c r="B180" s="18"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="11"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
@@ -5743,10 +5775,10 @@
     </row>
     <row r="181">
       <c r="A181" s="1"/>
-      <c r="B181" s="17"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="14"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="11"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
@@ -5771,10 +5803,10 @@
     </row>
     <row r="182">
       <c r="A182" s="1"/>
-      <c r="B182" s="17"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
+      <c r="B182" s="18"/>
+      <c r="C182" s="16"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
@@ -5799,10 +5831,10 @@
     </row>
     <row r="183">
       <c r="A183" s="1"/>
-      <c r="B183" s="17"/>
-      <c r="C183" s="18"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
+      <c r="B183" s="18"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
@@ -5827,10 +5859,10 @@
     </row>
     <row r="184">
       <c r="A184" s="1"/>
-      <c r="B184" s="17"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
+      <c r="B184" s="18"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
@@ -5855,10 +5887,10 @@
     </row>
     <row r="185">
       <c r="A185" s="1"/>
-      <c r="B185" s="17"/>
-      <c r="C185" s="18"/>
-      <c r="D185" s="13"/>
-      <c r="E185" s="14"/>
+      <c r="B185" s="18"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="11"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
@@ -5883,10 +5915,10 @@
     </row>
     <row r="186">
       <c r="A186" s="1"/>
-      <c r="B186" s="17"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
+      <c r="B186" s="18"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
@@ -5911,10 +5943,10 @@
     </row>
     <row r="187">
       <c r="A187" s="1"/>
-      <c r="B187" s="17"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
+      <c r="B187" s="18"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
@@ -5939,10 +5971,10 @@
     </row>
     <row r="188">
       <c r="A188" s="1"/>
-      <c r="B188" s="17"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
+      <c r="B188" s="18"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
@@ -5967,10 +5999,10 @@
     </row>
     <row r="189">
       <c r="A189" s="1"/>
-      <c r="B189" s="17"/>
-      <c r="C189" s="18"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
+      <c r="B189" s="18"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
@@ -5995,10 +6027,10 @@
     </row>
     <row r="190">
       <c r="A190" s="1"/>
-      <c r="B190" s="17"/>
-      <c r="C190" s="18"/>
-      <c r="D190" s="13"/>
-      <c r="E190" s="14"/>
+      <c r="B190" s="18"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="11"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
@@ -6023,10 +6055,10 @@
     </row>
     <row r="191">
       <c r="A191" s="1"/>
-      <c r="B191" s="17"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="14"/>
+      <c r="B191" s="18"/>
+      <c r="C191" s="16"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="11"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
@@ -6051,10 +6083,10 @@
     </row>
     <row r="192">
       <c r="A192" s="1"/>
-      <c r="B192" s="17"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
+      <c r="B192" s="18"/>
+      <c r="C192" s="16"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
@@ -6079,10 +6111,10 @@
     </row>
     <row r="193">
       <c r="A193" s="1"/>
-      <c r="B193" s="17"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="14"/>
-      <c r="E193" s="14"/>
+      <c r="B193" s="18"/>
+      <c r="C193" s="16"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
       <c r="H193" s="6"/>
@@ -6107,10 +6139,10 @@
     </row>
     <row r="194">
       <c r="A194" s="1"/>
-      <c r="B194" s="17"/>
-      <c r="C194" s="18"/>
-      <c r="D194" s="13"/>
-      <c r="E194" s="14"/>
+      <c r="B194" s="18"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="11"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
@@ -6135,10 +6167,10 @@
     </row>
     <row r="195">
       <c r="A195" s="1"/>
-      <c r="B195" s="17"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="14"/>
-      <c r="E195" s="14"/>
+      <c r="B195" s="18"/>
+      <c r="C195" s="16"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
@@ -6163,10 +6195,10 @@
     </row>
     <row r="196">
       <c r="A196" s="1"/>
-      <c r="B196" s="17"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="14"/>
-      <c r="E196" s="14"/>
+      <c r="B196" s="18"/>
+      <c r="C196" s="16"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
@@ -6191,10 +6223,10 @@
     </row>
     <row r="197">
       <c r="A197" s="1"/>
-      <c r="B197" s="17"/>
-      <c r="C197" s="18"/>
-      <c r="D197" s="13"/>
-      <c r="E197" s="14"/>
+      <c r="B197" s="18"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="11"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
       <c r="H197" s="6"/>
@@ -6219,10 +6251,10 @@
     </row>
     <row r="198">
       <c r="A198" s="1"/>
-      <c r="B198" s="17"/>
-      <c r="C198" s="18"/>
-      <c r="D198" s="13"/>
-      <c r="E198" s="14"/>
+      <c r="B198" s="18"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="11"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
@@ -6247,10 +6279,10 @@
     </row>
     <row r="199">
       <c r="A199" s="1"/>
-      <c r="B199" s="17"/>
-      <c r="C199" s="18"/>
-      <c r="D199" s="13"/>
-      <c r="E199" s="14"/>
+      <c r="B199" s="18"/>
+      <c r="C199" s="16"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="11"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
@@ -6275,10 +6307,10 @@
     </row>
     <row r="200">
       <c r="A200" s="1"/>
-      <c r="B200" s="17"/>
-      <c r="C200" s="18"/>
-      <c r="D200" s="14"/>
-      <c r="E200" s="14"/>
+      <c r="B200" s="18"/>
+      <c r="C200" s="16"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
@@ -6303,10 +6335,10 @@
     </row>
     <row r="201">
       <c r="A201" s="1"/>
-      <c r="B201" s="17"/>
-      <c r="C201" s="18"/>
-      <c r="D201" s="14"/>
-      <c r="E201" s="14"/>
+      <c r="B201" s="18"/>
+      <c r="C201" s="16"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
       <c r="H201" s="6"/>
@@ -6331,10 +6363,10 @@
     </row>
     <row r="202">
       <c r="A202" s="1"/>
-      <c r="B202" s="17"/>
-      <c r="C202" s="18"/>
-      <c r="D202" s="14"/>
-      <c r="E202" s="14"/>
+      <c r="B202" s="18"/>
+      <c r="C202" s="16"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
@@ -6359,10 +6391,10 @@
     </row>
     <row r="203">
       <c r="A203" s="1"/>
-      <c r="B203" s="17"/>
-      <c r="C203" s="18"/>
-      <c r="D203" s="14"/>
-      <c r="E203" s="14"/>
+      <c r="B203" s="18"/>
+      <c r="C203" s="16"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
       <c r="H203" s="6"/>
@@ -6387,10 +6419,10 @@
     </row>
     <row r="204">
       <c r="A204" s="1"/>
-      <c r="B204" s="17"/>
-      <c r="C204" s="18"/>
-      <c r="D204" s="14"/>
-      <c r="E204" s="14"/>
+      <c r="B204" s="18"/>
+      <c r="C204" s="16"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
@@ -6415,10 +6447,10 @@
     </row>
     <row r="205">
       <c r="A205" s="1"/>
-      <c r="B205" s="17"/>
-      <c r="C205" s="18"/>
-      <c r="D205" s="13"/>
-      <c r="E205" s="14"/>
+      <c r="B205" s="18"/>
+      <c r="C205" s="16"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="11"/>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
       <c r="H205" s="6"/>
@@ -6443,10 +6475,10 @@
     </row>
     <row r="206">
       <c r="A206" s="1"/>
-      <c r="B206" s="17"/>
-      <c r="C206" s="18"/>
-      <c r="D206" s="14"/>
-      <c r="E206" s="14"/>
+      <c r="B206" s="18"/>
+      <c r="C206" s="16"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
       <c r="H206" s="6"/>
@@ -6471,10 +6503,10 @@
     </row>
     <row r="207">
       <c r="A207" s="1"/>
-      <c r="B207" s="17"/>
-      <c r="C207" s="18"/>
-      <c r="D207" s="13"/>
-      <c r="E207" s="14"/>
+      <c r="B207" s="18"/>
+      <c r="C207" s="16"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="11"/>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
       <c r="H207" s="6"/>
@@ -6499,10 +6531,10 @@
     </row>
     <row r="208">
       <c r="A208" s="1"/>
-      <c r="B208" s="17"/>
-      <c r="C208" s="18"/>
-      <c r="D208" s="13"/>
-      <c r="E208" s="14"/>
+      <c r="B208" s="18"/>
+      <c r="C208" s="16"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="11"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
       <c r="H208" s="6"/>
@@ -6527,10 +6559,10 @@
     </row>
     <row r="209">
       <c r="A209" s="1"/>
-      <c r="B209" s="17"/>
-      <c r="C209" s="18"/>
-      <c r="D209" s="14"/>
-      <c r="E209" s="14"/>
+      <c r="B209" s="18"/>
+      <c r="C209" s="16"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
       <c r="H209" s="6"/>
@@ -6555,10 +6587,10 @@
     </row>
     <row r="210">
       <c r="A210" s="1"/>
-      <c r="B210" s="17"/>
-      <c r="C210" s="18"/>
-      <c r="D210" s="14"/>
-      <c r="E210" s="14"/>
+      <c r="B210" s="18"/>
+      <c r="C210" s="16"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
@@ -6583,10 +6615,10 @@
     </row>
     <row r="211">
       <c r="A211" s="1"/>
-      <c r="B211" s="17"/>
-      <c r="C211" s="18"/>
-      <c r="D211" s="14"/>
-      <c r="E211" s="14"/>
+      <c r="B211" s="18"/>
+      <c r="C211" s="16"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
       <c r="H211" s="6"/>
@@ -6611,10 +6643,10 @@
     </row>
     <row r="212">
       <c r="A212" s="1"/>
-      <c r="B212" s="17"/>
-      <c r="C212" s="18"/>
-      <c r="D212" s="13"/>
-      <c r="E212" s="14"/>
+      <c r="B212" s="18"/>
+      <c r="C212" s="16"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="11"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
       <c r="H212" s="6"/>
@@ -6639,10 +6671,10 @@
     </row>
     <row r="213">
       <c r="A213" s="1"/>
-      <c r="B213" s="17"/>
-      <c r="C213" s="18"/>
-      <c r="D213" s="14"/>
-      <c r="E213" s="14"/>
+      <c r="B213" s="18"/>
+      <c r="C213" s="16"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
       <c r="H213" s="6"/>
@@ -6667,10 +6699,10 @@
     </row>
     <row r="214">
       <c r="A214" s="1"/>
-      <c r="B214" s="17"/>
-      <c r="C214" s="18"/>
-      <c r="D214" s="13"/>
-      <c r="E214" s="14"/>
+      <c r="B214" s="18"/>
+      <c r="C214" s="16"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="11"/>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
       <c r="H214" s="6"/>
@@ -6695,10 +6727,10 @@
     </row>
     <row r="215">
       <c r="A215" s="1"/>
-      <c r="B215" s="17"/>
-      <c r="C215" s="18"/>
-      <c r="D215" s="14"/>
-      <c r="E215" s="14"/>
+      <c r="B215" s="18"/>
+      <c r="C215" s="16"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
       <c r="H215" s="6"/>
@@ -6723,10 +6755,10 @@
     </row>
     <row r="216">
       <c r="A216" s="1"/>
-      <c r="B216" s="17"/>
-      <c r="C216" s="18"/>
-      <c r="D216" s="13"/>
-      <c r="E216" s="14"/>
+      <c r="B216" s="18"/>
+      <c r="C216" s="16"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="11"/>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
       <c r="H216" s="6"/>
@@ -6751,10 +6783,10 @@
     </row>
     <row r="217">
       <c r="A217" s="1"/>
-      <c r="B217" s="17"/>
-      <c r="C217" s="18"/>
-      <c r="D217" s="14"/>
-      <c r="E217" s="14"/>
+      <c r="B217" s="18"/>
+      <c r="C217" s="16"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
       <c r="H217" s="6"/>
@@ -6779,10 +6811,10 @@
     </row>
     <row r="218">
       <c r="A218" s="1"/>
-      <c r="B218" s="17"/>
-      <c r="C218" s="18"/>
-      <c r="D218" s="14"/>
-      <c r="E218" s="14"/>
+      <c r="B218" s="18"/>
+      <c r="C218" s="16"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
       <c r="H218" s="6"/>
@@ -6807,10 +6839,10 @@
     </row>
     <row r="219">
       <c r="A219" s="1"/>
-      <c r="B219" s="17"/>
-      <c r="C219" s="18"/>
-      <c r="D219" s="13"/>
-      <c r="E219" s="14"/>
+      <c r="B219" s="18"/>
+      <c r="C219" s="16"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="11"/>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
       <c r="H219" s="6"/>
@@ -6835,10 +6867,10 @@
     </row>
     <row r="220">
       <c r="A220" s="1"/>
-      <c r="B220" s="17"/>
-      <c r="C220" s="18"/>
-      <c r="D220" s="13"/>
-      <c r="E220" s="14"/>
+      <c r="B220" s="18"/>
+      <c r="C220" s="16"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="11"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
       <c r="H220" s="6"/>
@@ -6863,10 +6895,10 @@
     </row>
     <row r="221">
       <c r="A221" s="1"/>
-      <c r="B221" s="17"/>
-      <c r="C221" s="18"/>
-      <c r="D221" s="14"/>
-      <c r="E221" s="14"/>
+      <c r="B221" s="18"/>
+      <c r="C221" s="16"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
@@ -6891,10 +6923,10 @@
     </row>
     <row r="222">
       <c r="A222" s="1"/>
-      <c r="B222" s="17"/>
-      <c r="C222" s="18"/>
-      <c r="D222" s="14"/>
-      <c r="E222" s="14"/>
+      <c r="B222" s="18"/>
+      <c r="C222" s="16"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
       <c r="H222" s="6"/>
@@ -6919,10 +6951,10 @@
     </row>
     <row r="223">
       <c r="A223" s="1"/>
-      <c r="B223" s="17"/>
-      <c r="C223" s="18"/>
-      <c r="D223" s="14"/>
-      <c r="E223" s="14"/>
+      <c r="B223" s="18"/>
+      <c r="C223" s="16"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
       <c r="H223" s="6"/>
@@ -6947,10 +6979,10 @@
     </row>
     <row r="224">
       <c r="A224" s="1"/>
-      <c r="B224" s="17"/>
-      <c r="C224" s="18"/>
-      <c r="D224" s="14"/>
-      <c r="E224" s="14"/>
+      <c r="B224" s="18"/>
+      <c r="C224" s="16"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
       <c r="H224" s="6"/>
@@ -6975,10 +7007,10 @@
     </row>
     <row r="225">
       <c r="A225" s="1"/>
-      <c r="B225" s="17"/>
-      <c r="C225" s="18"/>
-      <c r="D225" s="13"/>
-      <c r="E225" s="14"/>
+      <c r="B225" s="18"/>
+      <c r="C225" s="16"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="11"/>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
       <c r="H225" s="6"/>
@@ -7003,10 +7035,10 @@
     </row>
     <row r="226">
       <c r="A226" s="1"/>
-      <c r="B226" s="17"/>
-      <c r="C226" s="18"/>
-      <c r="D226" s="14"/>
-      <c r="E226" s="14"/>
+      <c r="B226" s="18"/>
+      <c r="C226" s="16"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
       <c r="H226" s="6"/>
@@ -7031,10 +7063,10 @@
     </row>
     <row r="227">
       <c r="A227" s="1"/>
-      <c r="B227" s="17"/>
-      <c r="C227" s="18"/>
-      <c r="D227" s="14"/>
-      <c r="E227" s="14"/>
+      <c r="B227" s="18"/>
+      <c r="C227" s="16"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
       <c r="H227" s="6"/>
@@ -7059,10 +7091,10 @@
     </row>
     <row r="228">
       <c r="A228" s="1"/>
-      <c r="B228" s="17"/>
-      <c r="C228" s="18"/>
-      <c r="D228" s="13"/>
-      <c r="E228" s="14"/>
+      <c r="B228" s="18"/>
+      <c r="C228" s="16"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="11"/>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
       <c r="H228" s="6"/>
@@ -7087,10 +7119,10 @@
     </row>
     <row r="229">
       <c r="A229" s="1"/>
-      <c r="B229" s="17"/>
-      <c r="C229" s="18"/>
-      <c r="D229" s="14"/>
-      <c r="E229" s="14"/>
+      <c r="B229" s="18"/>
+      <c r="C229" s="16"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
       <c r="H229" s="6"/>
@@ -7115,10 +7147,10 @@
     </row>
     <row r="230">
       <c r="A230" s="1"/>
-      <c r="B230" s="17"/>
-      <c r="C230" s="18"/>
-      <c r="D230" s="13"/>
-      <c r="E230" s="14"/>
+      <c r="B230" s="18"/>
+      <c r="C230" s="16"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="11"/>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
       <c r="H230" s="6"/>
@@ -7143,10 +7175,10 @@
     </row>
     <row r="231">
       <c r="A231" s="1"/>
-      <c r="B231" s="17"/>
-      <c r="C231" s="18"/>
-      <c r="D231" s="14"/>
-      <c r="E231" s="14"/>
+      <c r="B231" s="18"/>
+      <c r="C231" s="16"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11"/>
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
       <c r="H231" s="6"/>
@@ -7171,10 +7203,10 @@
     </row>
     <row r="232">
       <c r="A232" s="1"/>
-      <c r="B232" s="17"/>
-      <c r="C232" s="18"/>
-      <c r="D232" s="13"/>
-      <c r="E232" s="14"/>
+      <c r="B232" s="18"/>
+      <c r="C232" s="16"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="11"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
       <c r="H232" s="6"/>
@@ -7199,10 +7231,10 @@
     </row>
     <row r="233">
       <c r="A233" s="1"/>
-      <c r="B233" s="17"/>
-      <c r="C233" s="18"/>
-      <c r="D233" s="13"/>
-      <c r="E233" s="14"/>
+      <c r="B233" s="18"/>
+      <c r="C233" s="16"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="11"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
       <c r="H233" s="6"/>
@@ -7227,10 +7259,10 @@
     </row>
     <row r="234">
       <c r="A234" s="1"/>
-      <c r="B234" s="17"/>
-      <c r="C234" s="18"/>
-      <c r="D234" s="14"/>
-      <c r="E234" s="14"/>
+      <c r="B234" s="18"/>
+      <c r="C234" s="16"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
       <c r="H234" s="6"/>
@@ -7255,10 +7287,10 @@
     </row>
     <row r="235">
       <c r="A235" s="1"/>
-      <c r="B235" s="17"/>
-      <c r="C235" s="18"/>
-      <c r="D235" s="14"/>
-      <c r="E235" s="14"/>
+      <c r="B235" s="18"/>
+      <c r="C235" s="16"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
       <c r="H235" s="6"/>
@@ -7283,10 +7315,10 @@
     </row>
     <row r="236">
       <c r="A236" s="1"/>
-      <c r="B236" s="17"/>
-      <c r="C236" s="18"/>
-      <c r="D236" s="13"/>
-      <c r="E236" s="14"/>
+      <c r="B236" s="18"/>
+      <c r="C236" s="16"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="11"/>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
       <c r="H236" s="6"/>
@@ -7311,10 +7343,10 @@
     </row>
     <row r="237">
       <c r="A237" s="1"/>
-      <c r="B237" s="17"/>
-      <c r="C237" s="18"/>
-      <c r="D237" s="14"/>
-      <c r="E237" s="14"/>
+      <c r="B237" s="18"/>
+      <c r="C237" s="16"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
       <c r="H237" s="6"/>
@@ -7339,10 +7371,10 @@
     </row>
     <row r="238">
       <c r="A238" s="1"/>
-      <c r="B238" s="17"/>
-      <c r="C238" s="18"/>
-      <c r="D238" s="13"/>
-      <c r="E238" s="14"/>
+      <c r="B238" s="18"/>
+      <c r="C238" s="16"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="11"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
       <c r="H238" s="6"/>
@@ -7367,10 +7399,10 @@
     </row>
     <row r="239">
       <c r="A239" s="1"/>
-      <c r="B239" s="17"/>
-      <c r="C239" s="18"/>
-      <c r="D239" s="14"/>
-      <c r="E239" s="14"/>
+      <c r="B239" s="18"/>
+      <c r="C239" s="16"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
       <c r="H239" s="6"/>
@@ -7395,10 +7427,10 @@
     </row>
     <row r="240">
       <c r="A240" s="1"/>
-      <c r="B240" s="17"/>
-      <c r="C240" s="18"/>
-      <c r="D240" s="14"/>
-      <c r="E240" s="14"/>
+      <c r="B240" s="18"/>
+      <c r="C240" s="16"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
       <c r="H240" s="6"/>
@@ -7423,10 +7455,10 @@
     </row>
     <row r="241">
       <c r="A241" s="1"/>
-      <c r="B241" s="17"/>
-      <c r="C241" s="18"/>
-      <c r="D241" s="14"/>
-      <c r="E241" s="14"/>
+      <c r="B241" s="18"/>
+      <c r="C241" s="16"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
       <c r="H241" s="6"/>
@@ -7451,10 +7483,10 @@
     </row>
     <row r="242">
       <c r="A242" s="1"/>
-      <c r="B242" s="17"/>
-      <c r="C242" s="18"/>
-      <c r="D242" s="13"/>
-      <c r="E242" s="14"/>
+      <c r="B242" s="18"/>
+      <c r="C242" s="16"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="11"/>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
       <c r="H242" s="6"/>
@@ -7479,10 +7511,10 @@
     </row>
     <row r="243">
       <c r="A243" s="1"/>
-      <c r="B243" s="17"/>
-      <c r="C243" s="18"/>
-      <c r="D243" s="14"/>
-      <c r="E243" s="14"/>
+      <c r="B243" s="18"/>
+      <c r="C243" s="16"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11"/>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
       <c r="H243" s="6"/>
@@ -7507,10 +7539,10 @@
     </row>
     <row r="244">
       <c r="A244" s="1"/>
-      <c r="B244" s="17"/>
-      <c r="C244" s="18"/>
-      <c r="D244" s="14"/>
-      <c r="E244" s="14"/>
+      <c r="B244" s="18"/>
+      <c r="C244" s="16"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
       <c r="H244" s="6"/>
@@ -7535,10 +7567,10 @@
     </row>
     <row r="245">
       <c r="A245" s="1"/>
-      <c r="B245" s="17"/>
-      <c r="C245" s="18"/>
-      <c r="D245" s="13"/>
-      <c r="E245" s="14"/>
+      <c r="B245" s="18"/>
+      <c r="C245" s="16"/>
+      <c r="D245" s="10"/>
+      <c r="E245" s="11"/>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
       <c r="H245" s="6"/>
@@ -7563,10 +7595,10 @@
     </row>
     <row r="246">
       <c r="A246" s="1"/>
-      <c r="B246" s="17"/>
-      <c r="C246" s="18"/>
-      <c r="D246" s="14"/>
-      <c r="E246" s="14"/>
+      <c r="B246" s="18"/>
+      <c r="C246" s="16"/>
+      <c r="D246" s="11"/>
+      <c r="E246" s="11"/>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
       <c r="H246" s="6"/>
@@ -7591,10 +7623,10 @@
     </row>
     <row r="247">
       <c r="A247" s="1"/>
-      <c r="B247" s="17"/>
-      <c r="C247" s="18"/>
-      <c r="D247" s="13"/>
-      <c r="E247" s="14"/>
+      <c r="B247" s="18"/>
+      <c r="C247" s="16"/>
+      <c r="D247" s="10"/>
+      <c r="E247" s="11"/>
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
       <c r="H247" s="6"/>
@@ -7619,10 +7651,10 @@
     </row>
     <row r="248">
       <c r="A248" s="1"/>
-      <c r="B248" s="17"/>
-      <c r="C248" s="18"/>
-      <c r="D248" s="14"/>
-      <c r="E248" s="14"/>
+      <c r="B248" s="18"/>
+      <c r="C248" s="16"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
       <c r="H248" s="6"/>
@@ -7647,10 +7679,10 @@
     </row>
     <row r="249">
       <c r="A249" s="1"/>
-      <c r="B249" s="17"/>
-      <c r="C249" s="18"/>
-      <c r="D249" s="13"/>
-      <c r="E249" s="14"/>
+      <c r="B249" s="18"/>
+      <c r="C249" s="16"/>
+      <c r="D249" s="10"/>
+      <c r="E249" s="11"/>
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
       <c r="H249" s="6"/>
@@ -7675,10 +7707,10 @@
     </row>
     <row r="250">
       <c r="A250" s="1"/>
-      <c r="B250" s="17"/>
-      <c r="C250" s="18"/>
-      <c r="D250" s="14"/>
-      <c r="E250" s="14"/>
+      <c r="B250" s="18"/>
+      <c r="C250" s="16"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
       <c r="F250" s="6"/>
       <c r="G250" s="6"/>
       <c r="H250" s="6"/>
@@ -7703,10 +7735,10 @@
     </row>
     <row r="251">
       <c r="A251" s="1"/>
-      <c r="B251" s="17"/>
-      <c r="C251" s="18"/>
-      <c r="D251" s="13"/>
-      <c r="E251" s="14"/>
+      <c r="B251" s="18"/>
+      <c r="C251" s="16"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="11"/>
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
       <c r="H251" s="6"/>
@@ -7731,10 +7763,10 @@
     </row>
     <row r="252">
       <c r="A252" s="1"/>
-      <c r="B252" s="17"/>
-      <c r="C252" s="18"/>
-      <c r="D252" s="13"/>
-      <c r="E252" s="14"/>
+      <c r="B252" s="18"/>
+      <c r="C252" s="16"/>
+      <c r="D252" s="10"/>
+      <c r="E252" s="11"/>
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
       <c r="H252" s="6"/>
@@ -7759,10 +7791,10 @@
     </row>
     <row r="253">
       <c r="A253" s="1"/>
-      <c r="B253" s="17"/>
-      <c r="C253" s="18"/>
-      <c r="D253" s="14"/>
-      <c r="E253" s="14"/>
+      <c r="B253" s="18"/>
+      <c r="C253" s="16"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11"/>
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
       <c r="H253" s="6"/>
@@ -7787,10 +7819,10 @@
     </row>
     <row r="254">
       <c r="A254" s="1"/>
-      <c r="B254" s="17"/>
-      <c r="C254" s="18"/>
-      <c r="D254" s="13"/>
-      <c r="E254" s="14"/>
+      <c r="B254" s="18"/>
+      <c r="C254" s="16"/>
+      <c r="D254" s="10"/>
+      <c r="E254" s="11"/>
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
       <c r="H254" s="6"/>
@@ -7815,10 +7847,10 @@
     </row>
     <row r="255">
       <c r="A255" s="1"/>
-      <c r="B255" s="17"/>
-      <c r="C255" s="18"/>
-      <c r="D255" s="13"/>
-      <c r="E255" s="14"/>
+      <c r="B255" s="18"/>
+      <c r="C255" s="16"/>
+      <c r="D255" s="10"/>
+      <c r="E255" s="11"/>
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
       <c r="H255" s="6"/>
@@ -7843,10 +7875,10 @@
     </row>
     <row r="256">
       <c r="A256" s="1"/>
-      <c r="B256" s="17"/>
-      <c r="C256" s="18"/>
-      <c r="D256" s="13"/>
-      <c r="E256" s="14"/>
+      <c r="B256" s="18"/>
+      <c r="C256" s="16"/>
+      <c r="D256" s="10"/>
+      <c r="E256" s="11"/>
       <c r="F256" s="6"/>
       <c r="G256" s="6"/>
       <c r="H256" s="6"/>
@@ -7871,10 +7903,10 @@
     </row>
     <row r="257">
       <c r="A257" s="1"/>
-      <c r="B257" s="17"/>
-      <c r="C257" s="18"/>
-      <c r="D257" s="13"/>
-      <c r="E257" s="14"/>
+      <c r="B257" s="18"/>
+      <c r="C257" s="16"/>
+      <c r="D257" s="10"/>
+      <c r="E257" s="11"/>
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
       <c r="H257" s="6"/>
@@ -7899,10 +7931,10 @@
     </row>
     <row r="258">
       <c r="A258" s="1"/>
-      <c r="B258" s="17"/>
-      <c r="C258" s="18"/>
-      <c r="D258" s="13"/>
-      <c r="E258" s="14"/>
+      <c r="B258" s="18"/>
+      <c r="C258" s="16"/>
+      <c r="D258" s="10"/>
+      <c r="E258" s="11"/>
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
       <c r="H258" s="6"/>
@@ -7927,10 +7959,10 @@
     </row>
     <row r="259">
       <c r="A259" s="1"/>
-      <c r="B259" s="17"/>
-      <c r="C259" s="18"/>
-      <c r="D259" s="13"/>
-      <c r="E259" s="14"/>
+      <c r="B259" s="18"/>
+      <c r="C259" s="16"/>
+      <c r="D259" s="10"/>
+      <c r="E259" s="11"/>
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
       <c r="H259" s="6"/>
@@ -7955,10 +7987,10 @@
     </row>
     <row r="260">
       <c r="A260" s="1"/>
-      <c r="B260" s="17"/>
-      <c r="C260" s="18"/>
-      <c r="D260" s="14"/>
-      <c r="E260" s="14"/>
+      <c r="B260" s="18"/>
+      <c r="C260" s="16"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="11"/>
       <c r="F260" s="6"/>
       <c r="G260" s="6"/>
       <c r="H260" s="6"/>
@@ -7983,10 +8015,10 @@
     </row>
     <row r="261">
       <c r="A261" s="1"/>
-      <c r="B261" s="17"/>
-      <c r="C261" s="18"/>
-      <c r="D261" s="14"/>
-      <c r="E261" s="14"/>
+      <c r="B261" s="18"/>
+      <c r="C261" s="16"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="11"/>
       <c r="F261" s="6"/>
       <c r="G261" s="6"/>
       <c r="H261" s="6"/>
@@ -8011,10 +8043,10 @@
     </row>
     <row r="262">
       <c r="A262" s="1"/>
-      <c r="B262" s="17"/>
-      <c r="C262" s="18"/>
-      <c r="D262" s="13"/>
-      <c r="E262" s="14"/>
+      <c r="B262" s="18"/>
+      <c r="C262" s="16"/>
+      <c r="D262" s="10"/>
+      <c r="E262" s="11"/>
       <c r="F262" s="6"/>
       <c r="G262" s="6"/>
       <c r="H262" s="6"/>
@@ -8039,10 +8071,10 @@
     </row>
     <row r="263">
       <c r="A263" s="1"/>
-      <c r="B263" s="17"/>
-      <c r="C263" s="18"/>
-      <c r="D263" s="13"/>
-      <c r="E263" s="14"/>
+      <c r="B263" s="18"/>
+      <c r="C263" s="16"/>
+      <c r="D263" s="10"/>
+      <c r="E263" s="11"/>
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
       <c r="H263" s="6"/>
@@ -8067,10 +8099,10 @@
     </row>
     <row r="264">
       <c r="A264" s="1"/>
-      <c r="B264" s="17"/>
-      <c r="C264" s="18"/>
-      <c r="D264" s="14"/>
-      <c r="E264" s="14"/>
+      <c r="B264" s="18"/>
+      <c r="C264" s="16"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
       <c r="H264" s="6"/>
@@ -8095,10 +8127,10 @@
     </row>
     <row r="265">
       <c r="A265" s="1"/>
-      <c r="B265" s="17"/>
-      <c r="C265" s="18"/>
-      <c r="D265" s="14"/>
-      <c r="E265" s="14"/>
+      <c r="B265" s="18"/>
+      <c r="C265" s="16"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11"/>
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
       <c r="H265" s="6"/>
@@ -8123,10 +8155,10 @@
     </row>
     <row r="266">
       <c r="A266" s="1"/>
-      <c r="B266" s="17"/>
-      <c r="C266" s="18"/>
-      <c r="D266" s="14"/>
-      <c r="E266" s="14"/>
+      <c r="B266" s="18"/>
+      <c r="C266" s="16"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
       <c r="H266" s="6"/>
@@ -8151,10 +8183,10 @@
     </row>
     <row r="267">
       <c r="A267" s="1"/>
-      <c r="B267" s="17"/>
-      <c r="C267" s="18"/>
-      <c r="D267" s="13"/>
-      <c r="E267" s="14"/>
+      <c r="B267" s="18"/>
+      <c r="C267" s="16"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="11"/>
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
       <c r="H267" s="6"/>
@@ -8179,10 +8211,10 @@
     </row>
     <row r="268">
       <c r="A268" s="1"/>
-      <c r="B268" s="17"/>
-      <c r="C268" s="18"/>
-      <c r="D268" s="13"/>
-      <c r="E268" s="14"/>
+      <c r="B268" s="18"/>
+      <c r="C268" s="16"/>
+      <c r="D268" s="10"/>
+      <c r="E268" s="11"/>
       <c r="F268" s="6"/>
       <c r="G268" s="6"/>
       <c r="H268" s="6"/>
@@ -8207,10 +8239,10 @@
     </row>
     <row r="269">
       <c r="A269" s="1"/>
-      <c r="B269" s="17"/>
-      <c r="C269" s="18"/>
-      <c r="D269" s="13"/>
-      <c r="E269" s="14"/>
+      <c r="B269" s="18"/>
+      <c r="C269" s="16"/>
+      <c r="D269" s="10"/>
+      <c r="E269" s="11"/>
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
       <c r="H269" s="6"/>
@@ -8235,10 +8267,10 @@
     </row>
     <row r="270">
       <c r="A270" s="1"/>
-      <c r="B270" s="17"/>
-      <c r="C270" s="18"/>
-      <c r="D270" s="13"/>
-      <c r="E270" s="14"/>
+      <c r="B270" s="18"/>
+      <c r="C270" s="16"/>
+      <c r="D270" s="10"/>
+      <c r="E270" s="11"/>
       <c r="F270" s="6"/>
       <c r="G270" s="6"/>
       <c r="H270" s="6"/>
@@ -8263,10 +8295,10 @@
     </row>
     <row r="271">
       <c r="A271" s="1"/>
-      <c r="B271" s="17"/>
-      <c r="C271" s="18"/>
-      <c r="D271" s="14"/>
-      <c r="E271" s="14"/>
+      <c r="B271" s="18"/>
+      <c r="C271" s="16"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
       <c r="F271" s="6"/>
       <c r="G271" s="6"/>
       <c r="H271" s="6"/>
@@ -8291,10 +8323,10 @@
     </row>
     <row r="272">
       <c r="A272" s="1"/>
-      <c r="B272" s="17"/>
-      <c r="C272" s="18"/>
-      <c r="D272" s="13"/>
-      <c r="E272" s="14"/>
+      <c r="B272" s="18"/>
+      <c r="C272" s="16"/>
+      <c r="D272" s="10"/>
+      <c r="E272" s="11"/>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
       <c r="H272" s="6"/>
@@ -8319,10 +8351,10 @@
     </row>
     <row r="273">
       <c r="A273" s="1"/>
-      <c r="B273" s="17"/>
-      <c r="C273" s="18"/>
-      <c r="D273" s="13"/>
-      <c r="E273" s="14"/>
+      <c r="B273" s="18"/>
+      <c r="C273" s="16"/>
+      <c r="D273" s="10"/>
+      <c r="E273" s="11"/>
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
       <c r="H273" s="6"/>
@@ -8347,10 +8379,10 @@
     </row>
     <row r="274">
       <c r="A274" s="1"/>
-      <c r="B274" s="17"/>
-      <c r="C274" s="18"/>
-      <c r="D274" s="13"/>
-      <c r="E274" s="14"/>
+      <c r="B274" s="18"/>
+      <c r="C274" s="16"/>
+      <c r="D274" s="10"/>
+      <c r="E274" s="11"/>
       <c r="F274" s="6"/>
       <c r="G274" s="6"/>
       <c r="H274" s="6"/>
@@ -8375,10 +8407,10 @@
     </row>
     <row r="275">
       <c r="A275" s="1"/>
-      <c r="B275" s="17"/>
-      <c r="C275" s="18"/>
-      <c r="D275" s="13"/>
-      <c r="E275" s="14"/>
+      <c r="B275" s="18"/>
+      <c r="C275" s="16"/>
+      <c r="D275" s="10"/>
+      <c r="E275" s="11"/>
       <c r="F275" s="6"/>
       <c r="G275" s="6"/>
       <c r="H275" s="6"/>
@@ -8403,10 +8435,10 @@
     </row>
     <row r="276">
       <c r="A276" s="1"/>
-      <c r="B276" s="17"/>
-      <c r="C276" s="18"/>
-      <c r="D276" s="14"/>
-      <c r="E276" s="14"/>
+      <c r="B276" s="18"/>
+      <c r="C276" s="16"/>
+      <c r="D276" s="11"/>
+      <c r="E276" s="11"/>
       <c r="F276" s="6"/>
       <c r="G276" s="6"/>
       <c r="H276" s="6"/>
@@ -8431,10 +8463,10 @@
     </row>
     <row r="277">
       <c r="A277" s="1"/>
-      <c r="B277" s="17"/>
-      <c r="C277" s="18"/>
-      <c r="D277" s="14"/>
-      <c r="E277" s="14"/>
+      <c r="B277" s="18"/>
+      <c r="C277" s="16"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
       <c r="F277" s="6"/>
       <c r="G277" s="6"/>
       <c r="H277" s="6"/>
@@ -8459,10 +8491,10 @@
     </row>
     <row r="278">
       <c r="A278" s="1"/>
-      <c r="B278" s="17"/>
-      <c r="C278" s="18"/>
-      <c r="D278" s="13"/>
-      <c r="E278" s="14"/>
+      <c r="B278" s="18"/>
+      <c r="C278" s="16"/>
+      <c r="D278" s="10"/>
+      <c r="E278" s="11"/>
       <c r="F278" s="6"/>
       <c r="G278" s="6"/>
       <c r="H278" s="6"/>
@@ -8487,10 +8519,10 @@
     </row>
     <row r="279">
       <c r="A279" s="1"/>
-      <c r="B279" s="17"/>
-      <c r="C279" s="18"/>
-      <c r="D279" s="13"/>
-      <c r="E279" s="14"/>
+      <c r="B279" s="18"/>
+      <c r="C279" s="16"/>
+      <c r="D279" s="10"/>
+      <c r="E279" s="11"/>
       <c r="F279" s="6"/>
       <c r="G279" s="6"/>
       <c r="H279" s="6"/>
@@ -8515,10 +8547,10 @@
     </row>
     <row r="280">
       <c r="A280" s="1"/>
-      <c r="B280" s="17"/>
-      <c r="C280" s="18"/>
-      <c r="D280" s="14"/>
-      <c r="E280" s="14"/>
+      <c r="B280" s="18"/>
+      <c r="C280" s="16"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
       <c r="H280" s="6"/>
@@ -8543,10 +8575,10 @@
     </row>
     <row r="281">
       <c r="A281" s="1"/>
-      <c r="B281" s="17"/>
-      <c r="C281" s="18"/>
-      <c r="D281" s="14"/>
-      <c r="E281" s="14"/>
+      <c r="B281" s="18"/>
+      <c r="C281" s="16"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
       <c r="F281" s="6"/>
       <c r="G281" s="6"/>
       <c r="H281" s="6"/>
@@ -8571,10 +8603,10 @@
     </row>
     <row r="282">
       <c r="A282" s="1"/>
-      <c r="B282" s="17"/>
-      <c r="C282" s="18"/>
-      <c r="D282" s="13"/>
-      <c r="E282" s="14"/>
+      <c r="B282" s="18"/>
+      <c r="C282" s="16"/>
+      <c r="D282" s="10"/>
+      <c r="E282" s="11"/>
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
       <c r="H282" s="6"/>
@@ -8599,10 +8631,10 @@
     </row>
     <row r="283">
       <c r="A283" s="1"/>
-      <c r="B283" s="17"/>
-      <c r="C283" s="18"/>
-      <c r="D283" s="13"/>
-      <c r="E283" s="14"/>
+      <c r="B283" s="18"/>
+      <c r="C283" s="16"/>
+      <c r="D283" s="10"/>
+      <c r="E283" s="11"/>
       <c r="F283" s="6"/>
       <c r="G283" s="6"/>
       <c r="H283" s="6"/>
@@ -8627,10 +8659,10 @@
     </row>
     <row r="284">
       <c r="A284" s="1"/>
-      <c r="B284" s="17"/>
-      <c r="C284" s="18"/>
-      <c r="D284" s="13"/>
-      <c r="E284" s="14"/>
+      <c r="B284" s="18"/>
+      <c r="C284" s="16"/>
+      <c r="D284" s="10"/>
+      <c r="E284" s="11"/>
       <c r="F284" s="6"/>
       <c r="G284" s="6"/>
       <c r="H284" s="6"/>
@@ -8655,10 +8687,10 @@
     </row>
     <row r="285">
       <c r="A285" s="1"/>
-      <c r="B285" s="17"/>
-      <c r="C285" s="18"/>
-      <c r="D285" s="14"/>
-      <c r="E285" s="14"/>
+      <c r="B285" s="18"/>
+      <c r="C285" s="16"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
       <c r="H285" s="6"/>
@@ -8683,10 +8715,10 @@
     </row>
     <row r="286">
       <c r="A286" s="1"/>
-      <c r="B286" s="17"/>
-      <c r="C286" s="18"/>
-      <c r="D286" s="14"/>
-      <c r="E286" s="14"/>
+      <c r="B286" s="18"/>
+      <c r="C286" s="16"/>
+      <c r="D286" s="11"/>
+      <c r="E286" s="11"/>
       <c r="F286" s="6"/>
       <c r="G286" s="6"/>
       <c r="H286" s="6"/>
@@ -8711,10 +8743,10 @@
     </row>
     <row r="287">
       <c r="A287" s="1"/>
-      <c r="B287" s="17"/>
-      <c r="C287" s="18"/>
-      <c r="D287" s="14"/>
-      <c r="E287" s="14"/>
+      <c r="B287" s="18"/>
+      <c r="C287" s="16"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11"/>
       <c r="F287" s="6"/>
       <c r="G287" s="6"/>
       <c r="H287" s="6"/>
@@ -8739,10 +8771,10 @@
     </row>
     <row r="288">
       <c r="A288" s="1"/>
-      <c r="B288" s="17"/>
-      <c r="C288" s="18"/>
-      <c r="D288" s="14"/>
-      <c r="E288" s="14"/>
+      <c r="B288" s="18"/>
+      <c r="C288" s="16"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="11"/>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
       <c r="H288" s="6"/>
@@ -8767,10 +8799,10 @@
     </row>
     <row r="289">
       <c r="A289" s="1"/>
-      <c r="B289" s="17"/>
-      <c r="C289" s="18"/>
-      <c r="D289" s="14"/>
-      <c r="E289" s="14"/>
+      <c r="B289" s="18"/>
+      <c r="C289" s="16"/>
+      <c r="D289" s="11"/>
+      <c r="E289" s="11"/>
       <c r="F289" s="6"/>
       <c r="G289" s="6"/>
       <c r="H289" s="6"/>
@@ -8795,10 +8827,10 @@
     </row>
     <row r="290">
       <c r="A290" s="1"/>
-      <c r="B290" s="17"/>
-      <c r="C290" s="18"/>
-      <c r="D290" s="14"/>
-      <c r="E290" s="14"/>
+      <c r="B290" s="18"/>
+      <c r="C290" s="16"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="11"/>
       <c r="F290" s="6"/>
       <c r="G290" s="6"/>
       <c r="H290" s="6"/>
@@ -8823,10 +8855,10 @@
     </row>
     <row r="291">
       <c r="A291" s="1"/>
-      <c r="B291" s="17"/>
-      <c r="C291" s="18"/>
-      <c r="D291" s="13"/>
-      <c r="E291" s="14"/>
+      <c r="B291" s="18"/>
+      <c r="C291" s="16"/>
+      <c r="D291" s="10"/>
+      <c r="E291" s="11"/>
       <c r="F291" s="6"/>
       <c r="G291" s="6"/>
       <c r="H291" s="6"/>
@@ -8851,10 +8883,10 @@
     </row>
     <row r="292">
       <c r="A292" s="1"/>
-      <c r="B292" s="17"/>
-      <c r="C292" s="18"/>
-      <c r="D292" s="14"/>
-      <c r="E292" s="14"/>
+      <c r="B292" s="18"/>
+      <c r="C292" s="16"/>
+      <c r="D292" s="11"/>
+      <c r="E292" s="11"/>
       <c r="F292" s="6"/>
       <c r="G292" s="6"/>
       <c r="H292" s="6"/>
@@ -8879,10 +8911,10 @@
     </row>
     <row r="293">
       <c r="A293" s="1"/>
-      <c r="B293" s="17"/>
-      <c r="C293" s="18"/>
-      <c r="D293" s="14"/>
-      <c r="E293" s="14"/>
+      <c r="B293" s="18"/>
+      <c r="C293" s="16"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="11"/>
       <c r="F293" s="6"/>
       <c r="G293" s="6"/>
       <c r="H293" s="6"/>
@@ -8907,10 +8939,10 @@
     </row>
     <row r="294">
       <c r="A294" s="1"/>
-      <c r="B294" s="17"/>
-      <c r="C294" s="18"/>
-      <c r="D294" s="13"/>
-      <c r="E294" s="14"/>
+      <c r="B294" s="18"/>
+      <c r="C294" s="16"/>
+      <c r="D294" s="10"/>
+      <c r="E294" s="11"/>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
       <c r="H294" s="6"/>
@@ -8935,10 +8967,10 @@
     </row>
     <row r="295">
       <c r="A295" s="1"/>
-      <c r="B295" s="17"/>
-      <c r="C295" s="18"/>
-      <c r="D295" s="13"/>
-      <c r="E295" s="14"/>
+      <c r="B295" s="18"/>
+      <c r="C295" s="16"/>
+      <c r="D295" s="10"/>
+      <c r="E295" s="11"/>
       <c r="F295" s="6"/>
       <c r="G295" s="6"/>
       <c r="H295" s="6"/>
@@ -8963,10 +8995,10 @@
     </row>
     <row r="296">
       <c r="A296" s="1"/>
-      <c r="B296" s="17"/>
-      <c r="C296" s="18"/>
-      <c r="D296" s="14"/>
-      <c r="E296" s="14"/>
+      <c r="B296" s="18"/>
+      <c r="C296" s="16"/>
+      <c r="D296" s="11"/>
+      <c r="E296" s="11"/>
       <c r="F296" s="6"/>
       <c r="G296" s="6"/>
       <c r="H296" s="6"/>
@@ -8991,10 +9023,10 @@
     </row>
     <row r="297">
       <c r="A297" s="1"/>
-      <c r="B297" s="17"/>
-      <c r="C297" s="18"/>
-      <c r="D297" s="14"/>
-      <c r="E297" s="14"/>
+      <c r="B297" s="18"/>
+      <c r="C297" s="16"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="11"/>
       <c r="F297" s="6"/>
       <c r="G297" s="6"/>
       <c r="H297" s="6"/>
@@ -9019,10 +9051,10 @@
     </row>
     <row r="298">
       <c r="A298" s="1"/>
-      <c r="B298" s="17"/>
-      <c r="C298" s="18"/>
-      <c r="D298" s="14"/>
-      <c r="E298" s="14"/>
+      <c r="B298" s="18"/>
+      <c r="C298" s="16"/>
+      <c r="D298" s="11"/>
+      <c r="E298" s="11"/>
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
       <c r="H298" s="6"/>
@@ -9047,10 +9079,10 @@
     </row>
     <row r="299">
       <c r="A299" s="1"/>
-      <c r="B299" s="17"/>
-      <c r="C299" s="18"/>
-      <c r="D299" s="13"/>
-      <c r="E299" s="14"/>
+      <c r="B299" s="18"/>
+      <c r="C299" s="16"/>
+      <c r="D299" s="10"/>
+      <c r="E299" s="11"/>
       <c r="F299" s="6"/>
       <c r="G299" s="6"/>
       <c r="H299" s="6"/>
@@ -9075,10 +9107,10 @@
     </row>
     <row r="300">
       <c r="A300" s="1"/>
-      <c r="B300" s="17"/>
-      <c r="C300" s="18"/>
-      <c r="D300" s="14"/>
-      <c r="E300" s="14"/>
+      <c r="B300" s="18"/>
+      <c r="C300" s="16"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="11"/>
       <c r="F300" s="6"/>
       <c r="G300" s="6"/>
       <c r="H300" s="6"/>
@@ -9103,10 +9135,10 @@
     </row>
     <row r="301">
       <c r="A301" s="1"/>
-      <c r="B301" s="17"/>
-      <c r="C301" s="18"/>
-      <c r="D301" s="14"/>
-      <c r="E301" s="14"/>
+      <c r="B301" s="18"/>
+      <c r="C301" s="16"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
       <c r="F301" s="6"/>
       <c r="G301" s="6"/>
       <c r="H301" s="6"/>
@@ -9131,10 +9163,10 @@
     </row>
     <row r="302">
       <c r="A302" s="1"/>
-      <c r="B302" s="17"/>
-      <c r="C302" s="18"/>
-      <c r="D302" s="13"/>
-      <c r="E302" s="14"/>
+      <c r="B302" s="18"/>
+      <c r="C302" s="16"/>
+      <c r="D302" s="10"/>
+      <c r="E302" s="11"/>
       <c r="F302" s="6"/>
       <c r="G302" s="6"/>
       <c r="H302" s="6"/>
@@ -9159,10 +9191,10 @@
     </row>
     <row r="303">
       <c r="A303" s="1"/>
-      <c r="B303" s="17"/>
-      <c r="C303" s="16"/>
-      <c r="D303" s="13"/>
-      <c r="E303" s="14"/>
+      <c r="B303" s="18"/>
+      <c r="C303" s="17"/>
+      <c r="D303" s="10"/>
+      <c r="E303" s="11"/>
       <c r="F303" s="6"/>
       <c r="G303" s="6"/>
       <c r="H303" s="6"/>
@@ -9187,10 +9219,10 @@
     </row>
     <row r="304">
       <c r="A304" s="1"/>
-      <c r="B304" s="17"/>
-      <c r="C304" s="18"/>
-      <c r="D304" s="13"/>
-      <c r="E304" s="14"/>
+      <c r="B304" s="18"/>
+      <c r="C304" s="16"/>
+      <c r="D304" s="10"/>
+      <c r="E304" s="11"/>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
       <c r="H304" s="6"/>
@@ -9215,10 +9247,10 @@
     </row>
     <row r="305">
       <c r="A305" s="1"/>
-      <c r="B305" s="17"/>
-      <c r="C305" s="18"/>
-      <c r="D305" s="13"/>
-      <c r="E305" s="14"/>
+      <c r="B305" s="18"/>
+      <c r="C305" s="16"/>
+      <c r="D305" s="10"/>
+      <c r="E305" s="11"/>
       <c r="F305" s="6"/>
       <c r="G305" s="6"/>
       <c r="H305" s="6"/>
@@ -9243,10 +9275,10 @@
     </row>
     <row r="306">
       <c r="A306" s="1"/>
-      <c r="B306" s="17"/>
-      <c r="C306" s="18"/>
-      <c r="D306" s="13"/>
-      <c r="E306" s="14"/>
+      <c r="B306" s="18"/>
+      <c r="C306" s="16"/>
+      <c r="D306" s="10"/>
+      <c r="E306" s="11"/>
       <c r="F306" s="6"/>
       <c r="G306" s="6"/>
       <c r="H306" s="6"/>
@@ -9271,10 +9303,10 @@
     </row>
     <row r="307">
       <c r="A307" s="1"/>
-      <c r="B307" s="17"/>
-      <c r="C307" s="18"/>
-      <c r="D307" s="13"/>
-      <c r="E307" s="14"/>
+      <c r="B307" s="18"/>
+      <c r="C307" s="16"/>
+      <c r="D307" s="10"/>
+      <c r="E307" s="11"/>
       <c r="F307" s="6"/>
       <c r="G307" s="6"/>
       <c r="H307" s="6"/>
@@ -9299,10 +9331,10 @@
     </row>
     <row r="308">
       <c r="A308" s="1"/>
-      <c r="B308" s="17"/>
-      <c r="C308" s="18"/>
-      <c r="D308" s="13"/>
-      <c r="E308" s="14"/>
+      <c r="B308" s="18"/>
+      <c r="C308" s="16"/>
+      <c r="D308" s="10"/>
+      <c r="E308" s="11"/>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
       <c r="H308" s="6"/>
@@ -9327,10 +9359,10 @@
     </row>
     <row r="309">
       <c r="A309" s="1"/>
-      <c r="B309" s="17"/>
-      <c r="C309" s="18"/>
-      <c r="D309" s="14"/>
-      <c r="E309" s="14"/>
+      <c r="B309" s="18"/>
+      <c r="C309" s="16"/>
+      <c r="D309" s="11"/>
+      <c r="E309" s="11"/>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
       <c r="H309" s="6"/>
@@ -9355,10 +9387,10 @@
     </row>
     <row r="310">
       <c r="A310" s="1"/>
-      <c r="B310" s="17"/>
-      <c r="C310" s="18"/>
-      <c r="D310" s="14"/>
-      <c r="E310" s="14"/>
+      <c r="B310" s="18"/>
+      <c r="C310" s="16"/>
+      <c r="D310" s="11"/>
+      <c r="E310" s="11"/>
       <c r="F310" s="6"/>
       <c r="G310" s="6"/>
       <c r="H310" s="6"/>
@@ -9383,10 +9415,10 @@
     </row>
     <row r="311">
       <c r="A311" s="1"/>
-      <c r="B311" s="17"/>
-      <c r="C311" s="18"/>
-      <c r="D311" s="14"/>
-      <c r="E311" s="14"/>
+      <c r="B311" s="18"/>
+      <c r="C311" s="16"/>
+      <c r="D311" s="11"/>
+      <c r="E311" s="11"/>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
       <c r="H311" s="6"/>
@@ -9411,10 +9443,10 @@
     </row>
     <row r="312">
       <c r="A312" s="1"/>
-      <c r="B312" s="17"/>
-      <c r="C312" s="18"/>
-      <c r="D312" s="14"/>
-      <c r="E312" s="14"/>
+      <c r="B312" s="18"/>
+      <c r="C312" s="16"/>
+      <c r="D312" s="11"/>
+      <c r="E312" s="11"/>
       <c r="F312" s="6"/>
       <c r="G312" s="6"/>
       <c r="H312" s="6"/>
@@ -9439,10 +9471,10 @@
     </row>
     <row r="313">
       <c r="A313" s="1"/>
-      <c r="B313" s="17"/>
-      <c r="C313" s="18"/>
-      <c r="D313" s="14"/>
-      <c r="E313" s="14"/>
+      <c r="B313" s="18"/>
+      <c r="C313" s="16"/>
+      <c r="D313" s="11"/>
+      <c r="E313" s="11"/>
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
       <c r="H313" s="6"/>
@@ -9467,10 +9499,10 @@
     </row>
     <row r="314">
       <c r="A314" s="1"/>
-      <c r="B314" s="17"/>
-      <c r="C314" s="18"/>
-      <c r="D314" s="13"/>
-      <c r="E314" s="14"/>
+      <c r="B314" s="18"/>
+      <c r="C314" s="16"/>
+      <c r="D314" s="10"/>
+      <c r="E314" s="11"/>
       <c r="F314" s="6"/>
       <c r="G314" s="6"/>
       <c r="H314" s="6"/>
@@ -9495,10 +9527,10 @@
     </row>
     <row r="315">
       <c r="A315" s="1"/>
-      <c r="B315" s="17"/>
-      <c r="C315" s="18"/>
-      <c r="D315" s="14"/>
-      <c r="E315" s="14"/>
+      <c r="B315" s="18"/>
+      <c r="C315" s="16"/>
+      <c r="D315" s="11"/>
+      <c r="E315" s="11"/>
       <c r="F315" s="6"/>
       <c r="G315" s="6"/>
       <c r="H315" s="6"/>
@@ -9523,10 +9555,10 @@
     </row>
     <row r="316">
       <c r="A316" s="1"/>
-      <c r="B316" s="17"/>
-      <c r="C316" s="18"/>
-      <c r="D316" s="13"/>
-      <c r="E316" s="14"/>
+      <c r="B316" s="18"/>
+      <c r="C316" s="16"/>
+      <c r="D316" s="10"/>
+      <c r="E316" s="11"/>
       <c r="F316" s="6"/>
       <c r="G316" s="6"/>
       <c r="H316" s="6"/>
@@ -9551,10 +9583,10 @@
     </row>
     <row r="317">
       <c r="A317" s="1"/>
-      <c r="B317" s="17"/>
-      <c r="C317" s="18"/>
-      <c r="D317" s="14"/>
-      <c r="E317" s="14"/>
+      <c r="B317" s="18"/>
+      <c r="C317" s="16"/>
+      <c r="D317" s="11"/>
+      <c r="E317" s="11"/>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
       <c r="H317" s="6"/>
@@ -9579,10 +9611,10 @@
     </row>
     <row r="318">
       <c r="A318" s="1"/>
-      <c r="B318" s="17"/>
-      <c r="C318" s="18"/>
-      <c r="D318" s="13"/>
-      <c r="E318" s="14"/>
+      <c r="B318" s="18"/>
+      <c r="C318" s="16"/>
+      <c r="D318" s="10"/>
+      <c r="E318" s="11"/>
       <c r="F318" s="6"/>
       <c r="G318" s="6"/>
       <c r="H318" s="6"/>
@@ -9607,10 +9639,10 @@
     </row>
     <row r="319">
       <c r="A319" s="1"/>
-      <c r="B319" s="17"/>
-      <c r="C319" s="18"/>
-      <c r="D319" s="13"/>
-      <c r="E319" s="14"/>
+      <c r="B319" s="18"/>
+      <c r="C319" s="16"/>
+      <c r="D319" s="10"/>
+      <c r="E319" s="11"/>
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
       <c r="H319" s="6"/>
@@ -9635,10 +9667,10 @@
     </row>
     <row r="320">
       <c r="A320" s="1"/>
-      <c r="B320" s="17"/>
-      <c r="C320" s="18"/>
-      <c r="D320" s="13"/>
-      <c r="E320" s="14"/>
+      <c r="B320" s="18"/>
+      <c r="C320" s="16"/>
+      <c r="D320" s="10"/>
+      <c r="E320" s="11"/>
       <c r="F320" s="6"/>
       <c r="G320" s="6"/>
       <c r="H320" s="6"/>
@@ -9663,10 +9695,10 @@
     </row>
     <row r="321">
       <c r="A321" s="1"/>
-      <c r="B321" s="17"/>
-      <c r="C321" s="18"/>
-      <c r="D321" s="13"/>
-      <c r="E321" s="14"/>
+      <c r="B321" s="18"/>
+      <c r="C321" s="16"/>
+      <c r="D321" s="10"/>
+      <c r="E321" s="11"/>
       <c r="F321" s="6"/>
       <c r="G321" s="6"/>
       <c r="H321" s="6"/>
@@ -9691,10 +9723,10 @@
     </row>
     <row r="322">
       <c r="A322" s="1"/>
-      <c r="B322" s="17"/>
-      <c r="C322" s="18"/>
-      <c r="D322" s="13"/>
-      <c r="E322" s="14"/>
+      <c r="B322" s="18"/>
+      <c r="C322" s="16"/>
+      <c r="D322" s="10"/>
+      <c r="E322" s="11"/>
       <c r="F322" s="6"/>
       <c r="G322" s="6"/>
       <c r="H322" s="6"/>
@@ -9719,10 +9751,10 @@
     </row>
     <row r="323">
       <c r="A323" s="1"/>
-      <c r="B323" s="17"/>
-      <c r="C323" s="18"/>
-      <c r="D323" s="13"/>
-      <c r="E323" s="14"/>
+      <c r="B323" s="18"/>
+      <c r="C323" s="16"/>
+      <c r="D323" s="10"/>
+      <c r="E323" s="11"/>
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
       <c r="H323" s="6"/>
@@ -9747,10 +9779,10 @@
     </row>
     <row r="324">
       <c r="A324" s="1"/>
-      <c r="B324" s="17"/>
-      <c r="C324" s="18"/>
-      <c r="D324" s="14"/>
-      <c r="E324" s="14"/>
+      <c r="B324" s="18"/>
+      <c r="C324" s="16"/>
+      <c r="D324" s="11"/>
+      <c r="E324" s="11"/>
       <c r="F324" s="6"/>
       <c r="G324" s="6"/>
       <c r="H324" s="6"/>
@@ -9775,10 +9807,10 @@
     </row>
     <row r="325">
       <c r="A325" s="1"/>
-      <c r="B325" s="17"/>
-      <c r="C325" s="18"/>
-      <c r="D325" s="13"/>
-      <c r="E325" s="14"/>
+      <c r="B325" s="18"/>
+      <c r="C325" s="16"/>
+      <c r="D325" s="10"/>
+      <c r="E325" s="11"/>
       <c r="F325" s="6"/>
       <c r="G325" s="6"/>
       <c r="H325" s="6"/>
@@ -9803,10 +9835,10 @@
     </row>
     <row r="326">
       <c r="A326" s="1"/>
-      <c r="B326" s="17"/>
-      <c r="C326" s="18"/>
-      <c r="D326" s="14"/>
-      <c r="E326" s="14"/>
+      <c r="B326" s="18"/>
+      <c r="C326" s="16"/>
+      <c r="D326" s="11"/>
+      <c r="E326" s="11"/>
       <c r="F326" s="6"/>
       <c r="G326" s="6"/>
       <c r="H326" s="6"/>
@@ -9831,10 +9863,10 @@
     </row>
     <row r="327">
       <c r="A327" s="1"/>
-      <c r="B327" s="17"/>
-      <c r="C327" s="18"/>
-      <c r="D327" s="13"/>
-      <c r="E327" s="14"/>
+      <c r="B327" s="18"/>
+      <c r="C327" s="16"/>
+      <c r="D327" s="10"/>
+      <c r="E327" s="11"/>
       <c r="F327" s="6"/>
       <c r="G327" s="6"/>
       <c r="H327" s="6"/>
@@ -9859,10 +9891,10 @@
     </row>
     <row r="328">
       <c r="A328" s="1"/>
-      <c r="B328" s="17"/>
-      <c r="C328" s="18"/>
-      <c r="D328" s="13"/>
-      <c r="E328" s="14"/>
+      <c r="B328" s="18"/>
+      <c r="C328" s="16"/>
+      <c r="D328" s="10"/>
+      <c r="E328" s="11"/>
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
       <c r="H328" s="6"/>
@@ -9887,10 +9919,10 @@
     </row>
     <row r="329">
       <c r="A329" s="1"/>
-      <c r="B329" s="17"/>
-      <c r="C329" s="18"/>
-      <c r="D329" s="13"/>
-      <c r="E329" s="14"/>
+      <c r="B329" s="18"/>
+      <c r="C329" s="16"/>
+      <c r="D329" s="10"/>
+      <c r="E329" s="11"/>
       <c r="F329" s="6"/>
       <c r="G329" s="6"/>
       <c r="H329" s="6"/>
@@ -9915,10 +9947,10 @@
     </row>
     <row r="330">
       <c r="A330" s="1"/>
-      <c r="B330" s="17"/>
-      <c r="C330" s="18"/>
-      <c r="D330" s="14"/>
-      <c r="E330" s="14"/>
+      <c r="B330" s="18"/>
+      <c r="C330" s="16"/>
+      <c r="D330" s="11"/>
+      <c r="E330" s="11"/>
       <c r="F330" s="6"/>
       <c r="G330" s="6"/>
       <c r="H330" s="6"/>
@@ -9943,10 +9975,10 @@
     </row>
     <row r="331">
       <c r="A331" s="1"/>
-      <c r="B331" s="17"/>
-      <c r="C331" s="18"/>
-      <c r="D331" s="13"/>
-      <c r="E331" s="14"/>
+      <c r="B331" s="18"/>
+      <c r="C331" s="16"/>
+      <c r="D331" s="10"/>
+      <c r="E331" s="11"/>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
       <c r="H331" s="6"/>
@@ -9971,10 +10003,10 @@
     </row>
     <row r="332">
       <c r="A332" s="1"/>
-      <c r="B332" s="17"/>
-      <c r="C332" s="18"/>
-      <c r="D332" s="14"/>
-      <c r="E332" s="14"/>
+      <c r="B332" s="18"/>
+      <c r="C332" s="16"/>
+      <c r="D332" s="11"/>
+      <c r="E332" s="11"/>
       <c r="F332" s="6"/>
       <c r="G332" s="6"/>
       <c r="H332" s="6"/>
@@ -9999,10 +10031,10 @@
     </row>
     <row r="333">
       <c r="A333" s="1"/>
-      <c r="B333" s="17"/>
-      <c r="C333" s="18"/>
-      <c r="D333" s="14"/>
-      <c r="E333" s="14"/>
+      <c r="B333" s="18"/>
+      <c r="C333" s="16"/>
+      <c r="D333" s="11"/>
+      <c r="E333" s="11"/>
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
       <c r="H333" s="6"/>
@@ -10027,10 +10059,10 @@
     </row>
     <row r="334">
       <c r="A334" s="1"/>
-      <c r="B334" s="17"/>
-      <c r="C334" s="18"/>
-      <c r="D334" s="13"/>
-      <c r="E334" s="14"/>
+      <c r="B334" s="18"/>
+      <c r="C334" s="16"/>
+      <c r="D334" s="10"/>
+      <c r="E334" s="11"/>
       <c r="F334" s="6"/>
       <c r="G334" s="6"/>
       <c r="H334" s="6"/>
@@ -10055,10 +10087,10 @@
     </row>
     <row r="335">
       <c r="A335" s="1"/>
-      <c r="B335" s="17"/>
-      <c r="C335" s="18"/>
-      <c r="D335" s="14"/>
-      <c r="E335" s="14"/>
+      <c r="B335" s="18"/>
+      <c r="C335" s="16"/>
+      <c r="D335" s="11"/>
+      <c r="E335" s="11"/>
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
       <c r="H335" s="6"/>
@@ -10083,10 +10115,10 @@
     </row>
     <row r="336">
       <c r="A336" s="1"/>
-      <c r="B336" s="17"/>
-      <c r="C336" s="18"/>
-      <c r="D336" s="14"/>
-      <c r="E336" s="14"/>
+      <c r="B336" s="18"/>
+      <c r="C336" s="16"/>
+      <c r="D336" s="11"/>
+      <c r="E336" s="11"/>
       <c r="F336" s="6"/>
       <c r="G336" s="6"/>
       <c r="H336" s="6"/>
@@ -10111,10 +10143,10 @@
     </row>
     <row r="337">
       <c r="A337" s="1"/>
-      <c r="B337" s="17"/>
-      <c r="C337" s="18"/>
-      <c r="D337" s="13"/>
-      <c r="E337" s="14"/>
+      <c r="B337" s="18"/>
+      <c r="C337" s="16"/>
+      <c r="D337" s="10"/>
+      <c r="E337" s="11"/>
       <c r="F337" s="6"/>
       <c r="G337" s="6"/>
       <c r="H337" s="6"/>
@@ -10139,10 +10171,10 @@
     </row>
     <row r="338">
       <c r="A338" s="1"/>
-      <c r="B338" s="17"/>
-      <c r="C338" s="18"/>
-      <c r="D338" s="13"/>
-      <c r="E338" s="14"/>
+      <c r="B338" s="18"/>
+      <c r="C338" s="16"/>
+      <c r="D338" s="10"/>
+      <c r="E338" s="11"/>
       <c r="F338" s="6"/>
       <c r="G338" s="6"/>
       <c r="H338" s="6"/>
@@ -10167,10 +10199,10 @@
     </row>
     <row r="339">
       <c r="A339" s="1"/>
-      <c r="B339" s="17"/>
-      <c r="C339" s="18"/>
-      <c r="D339" s="14"/>
-      <c r="E339" s="14"/>
+      <c r="B339" s="18"/>
+      <c r="C339" s="16"/>
+      <c r="D339" s="11"/>
+      <c r="E339" s="11"/>
       <c r="F339" s="6"/>
       <c r="G339" s="6"/>
       <c r="H339" s="6"/>
@@ -10195,10 +10227,10 @@
     </row>
     <row r="340">
       <c r="A340" s="1"/>
-      <c r="B340" s="17"/>
-      <c r="C340" s="18"/>
-      <c r="D340" s="13"/>
-      <c r="E340" s="14"/>
+      <c r="B340" s="18"/>
+      <c r="C340" s="16"/>
+      <c r="D340" s="10"/>
+      <c r="E340" s="11"/>
       <c r="F340" s="6"/>
       <c r="G340" s="6"/>
       <c r="H340" s="6"/>
@@ -10223,10 +10255,10 @@
     </row>
     <row r="341">
       <c r="A341" s="1"/>
-      <c r="B341" s="17"/>
-      <c r="C341" s="18"/>
-      <c r="D341" s="13"/>
-      <c r="E341" s="14"/>
+      <c r="B341" s="18"/>
+      <c r="C341" s="16"/>
+      <c r="D341" s="10"/>
+      <c r="E341" s="11"/>
       <c r="F341" s="6"/>
       <c r="G341" s="6"/>
       <c r="H341" s="6"/>
@@ -10251,10 +10283,10 @@
     </row>
     <row r="342">
       <c r="A342" s="1"/>
-      <c r="B342" s="17"/>
-      <c r="C342" s="18"/>
-      <c r="D342" s="14"/>
-      <c r="E342" s="14"/>
+      <c r="B342" s="18"/>
+      <c r="C342" s="16"/>
+      <c r="D342" s="11"/>
+      <c r="E342" s="11"/>
       <c r="F342" s="6"/>
       <c r="G342" s="6"/>
       <c r="H342" s="6"/>
@@ -10279,10 +10311,10 @@
     </row>
     <row r="343">
       <c r="A343" s="1"/>
-      <c r="B343" s="17"/>
-      <c r="C343" s="18"/>
-      <c r="D343" s="13"/>
-      <c r="E343" s="14"/>
+      <c r="B343" s="18"/>
+      <c r="C343" s="16"/>
+      <c r="D343" s="10"/>
+      <c r="E343" s="11"/>
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
       <c r="H343" s="6"/>
@@ -10307,10 +10339,10 @@
     </row>
     <row r="344">
       <c r="A344" s="1"/>
-      <c r="B344" s="17"/>
-      <c r="C344" s="18"/>
-      <c r="D344" s="14"/>
-      <c r="E344" s="14"/>
+      <c r="B344" s="18"/>
+      <c r="C344" s="16"/>
+      <c r="D344" s="11"/>
+      <c r="E344" s="11"/>
       <c r="F344" s="6"/>
       <c r="G344" s="6"/>
       <c r="H344" s="6"/>
@@ -10335,10 +10367,10 @@
     </row>
     <row r="345">
       <c r="A345" s="1"/>
-      <c r="B345" s="17"/>
-      <c r="C345" s="18"/>
-      <c r="D345" s="14"/>
-      <c r="E345" s="14"/>
+      <c r="B345" s="18"/>
+      <c r="C345" s="16"/>
+      <c r="D345" s="11"/>
+      <c r="E345" s="11"/>
       <c r="F345" s="6"/>
       <c r="G345" s="6"/>
       <c r="H345" s="6"/>
@@ -10363,10 +10395,10 @@
     </row>
     <row r="346">
       <c r="A346" s="1"/>
-      <c r="B346" s="17"/>
-      <c r="C346" s="18"/>
-      <c r="D346" s="13"/>
-      <c r="E346" s="14"/>
+      <c r="B346" s="18"/>
+      <c r="C346" s="16"/>
+      <c r="D346" s="10"/>
+      <c r="E346" s="11"/>
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
       <c r="H346" s="6"/>
@@ -10391,10 +10423,10 @@
     </row>
     <row r="347">
       <c r="A347" s="1"/>
-      <c r="B347" s="17"/>
-      <c r="C347" s="18"/>
-      <c r="D347" s="14"/>
-      <c r="E347" s="14"/>
+      <c r="B347" s="18"/>
+      <c r="C347" s="16"/>
+      <c r="D347" s="11"/>
+      <c r="E347" s="11"/>
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
       <c r="H347" s="6"/>
@@ -10419,10 +10451,10 @@
     </row>
     <row r="348">
       <c r="A348" s="1"/>
-      <c r="B348" s="17"/>
-      <c r="C348" s="18"/>
-      <c r="D348" s="14"/>
-      <c r="E348" s="14"/>
+      <c r="B348" s="18"/>
+      <c r="C348" s="16"/>
+      <c r="D348" s="11"/>
+      <c r="E348" s="11"/>
       <c r="F348" s="6"/>
       <c r="G348" s="6"/>
       <c r="H348" s="6"/>
@@ -10447,10 +10479,10 @@
     </row>
     <row r="349">
       <c r="A349" s="1"/>
-      <c r="B349" s="17"/>
-      <c r="C349" s="18"/>
-      <c r="D349" s="13"/>
-      <c r="E349" s="14"/>
+      <c r="B349" s="18"/>
+      <c r="C349" s="16"/>
+      <c r="D349" s="10"/>
+      <c r="E349" s="11"/>
       <c r="F349" s="6"/>
       <c r="G349" s="6"/>
       <c r="H349" s="6"/>
@@ -10475,10 +10507,10 @@
     </row>
     <row r="350">
       <c r="A350" s="1"/>
-      <c r="B350" s="17"/>
-      <c r="C350" s="18"/>
-      <c r="D350" s="13"/>
-      <c r="E350" s="14"/>
+      <c r="B350" s="18"/>
+      <c r="C350" s="16"/>
+      <c r="D350" s="10"/>
+      <c r="E350" s="11"/>
       <c r="F350" s="6"/>
       <c r="G350" s="6"/>
       <c r="H350" s="6"/>
@@ -10503,10 +10535,10 @@
     </row>
     <row r="351">
       <c r="A351" s="1"/>
-      <c r="B351" s="17"/>
-      <c r="C351" s="18"/>
-      <c r="D351" s="13"/>
-      <c r="E351" s="14"/>
+      <c r="B351" s="18"/>
+      <c r="C351" s="16"/>
+      <c r="D351" s="10"/>
+      <c r="E351" s="11"/>
       <c r="F351" s="6"/>
       <c r="G351" s="6"/>
       <c r="H351" s="6"/>
@@ -10531,10 +10563,10 @@
     </row>
     <row r="352">
       <c r="A352" s="1"/>
-      <c r="B352" s="17"/>
-      <c r="C352" s="18"/>
-      <c r="D352" s="13"/>
-      <c r="E352" s="14"/>
+      <c r="B352" s="18"/>
+      <c r="C352" s="16"/>
+      <c r="D352" s="10"/>
+      <c r="E352" s="11"/>
       <c r="F352" s="6"/>
       <c r="G352" s="6"/>
       <c r="H352" s="6"/>
@@ -10559,10 +10591,10 @@
     </row>
     <row r="353">
       <c r="A353" s="1"/>
-      <c r="B353" s="17"/>
-      <c r="C353" s="18"/>
-      <c r="D353" s="13"/>
-      <c r="E353" s="14"/>
+      <c r="B353" s="18"/>
+      <c r="C353" s="16"/>
+      <c r="D353" s="10"/>
+      <c r="E353" s="11"/>
       <c r="F353" s="6"/>
       <c r="G353" s="6"/>
       <c r="H353" s="6"/>
@@ -10587,10 +10619,10 @@
     </row>
     <row r="354">
       <c r="A354" s="1"/>
-      <c r="B354" s="17"/>
-      <c r="C354" s="18"/>
-      <c r="D354" s="13"/>
-      <c r="E354" s="14"/>
+      <c r="B354" s="18"/>
+      <c r="C354" s="16"/>
+      <c r="D354" s="10"/>
+      <c r="E354" s="11"/>
       <c r="F354" s="6"/>
       <c r="G354" s="6"/>
       <c r="H354" s="6"/>
@@ -10615,10 +10647,10 @@
     </row>
     <row r="355">
       <c r="A355" s="1"/>
-      <c r="B355" s="17"/>
-      <c r="C355" s="18"/>
-      <c r="D355" s="14"/>
-      <c r="E355" s="14"/>
+      <c r="B355" s="18"/>
+      <c r="C355" s="16"/>
+      <c r="D355" s="11"/>
+      <c r="E355" s="11"/>
       <c r="F355" s="6"/>
       <c r="G355" s="6"/>
       <c r="H355" s="6"/>
@@ -10643,10 +10675,10 @@
     </row>
     <row r="356">
       <c r="A356" s="1"/>
-      <c r="B356" s="17"/>
-      <c r="C356" s="18"/>
-      <c r="D356" s="14"/>
-      <c r="E356" s="14"/>
+      <c r="B356" s="18"/>
+      <c r="C356" s="16"/>
+      <c r="D356" s="11"/>
+      <c r="E356" s="11"/>
       <c r="F356" s="6"/>
       <c r="G356" s="6"/>
       <c r="H356" s="6"/>
@@ -10671,10 +10703,10 @@
     </row>
     <row r="357">
       <c r="A357" s="1"/>
-      <c r="B357" s="17"/>
-      <c r="C357" s="18"/>
-      <c r="D357" s="13"/>
-      <c r="E357" s="14"/>
+      <c r="B357" s="18"/>
+      <c r="C357" s="16"/>
+      <c r="D357" s="10"/>
+      <c r="E357" s="11"/>
       <c r="F357" s="6"/>
       <c r="G357" s="6"/>
       <c r="H357" s="6"/>
@@ -10699,10 +10731,10 @@
     </row>
     <row r="358">
       <c r="A358" s="1"/>
-      <c r="B358" s="17"/>
-      <c r="C358" s="18"/>
-      <c r="D358" s="13"/>
-      <c r="E358" s="14"/>
+      <c r="B358" s="18"/>
+      <c r="C358" s="16"/>
+      <c r="D358" s="10"/>
+      <c r="E358" s="11"/>
       <c r="F358" s="6"/>
       <c r="G358" s="6"/>
       <c r="H358" s="6"/>
@@ -10727,10 +10759,10 @@
     </row>
     <row r="359">
       <c r="A359" s="1"/>
-      <c r="B359" s="17"/>
-      <c r="C359" s="18"/>
-      <c r="D359" s="13"/>
-      <c r="E359" s="14"/>
+      <c r="B359" s="18"/>
+      <c r="C359" s="16"/>
+      <c r="D359" s="10"/>
+      <c r="E359" s="11"/>
       <c r="F359" s="6"/>
       <c r="G359" s="6"/>
       <c r="H359" s="6"/>
@@ -10755,10 +10787,10 @@
     </row>
     <row r="360">
       <c r="A360" s="1"/>
-      <c r="B360" s="17"/>
-      <c r="C360" s="18"/>
-      <c r="D360" s="14"/>
-      <c r="E360" s="14"/>
+      <c r="B360" s="18"/>
+      <c r="C360" s="16"/>
+      <c r="D360" s="11"/>
+      <c r="E360" s="11"/>
       <c r="F360" s="6"/>
       <c r="G360" s="6"/>
       <c r="H360" s="6"/>
@@ -10783,10 +10815,10 @@
     </row>
     <row r="361">
       <c r="A361" s="1"/>
-      <c r="B361" s="17"/>
-      <c r="C361" s="18"/>
-      <c r="D361" s="14"/>
-      <c r="E361" s="14"/>
+      <c r="B361" s="18"/>
+      <c r="C361" s="16"/>
+      <c r="D361" s="11"/>
+      <c r="E361" s="11"/>
       <c r="F361" s="6"/>
       <c r="G361" s="6"/>
       <c r="H361" s="6"/>
@@ -10811,10 +10843,10 @@
     </row>
     <row r="362">
       <c r="A362" s="1"/>
-      <c r="B362" s="17"/>
-      <c r="C362" s="18"/>
-      <c r="D362" s="14"/>
-      <c r="E362" s="14"/>
+      <c r="B362" s="18"/>
+      <c r="C362" s="16"/>
+      <c r="D362" s="11"/>
+      <c r="E362" s="11"/>
       <c r="F362" s="6"/>
       <c r="G362" s="6"/>
       <c r="H362" s="6"/>
@@ -10839,10 +10871,10 @@
     </row>
     <row r="363">
       <c r="A363" s="1"/>
-      <c r="B363" s="17"/>
-      <c r="C363" s="18"/>
-      <c r="D363" s="13"/>
-      <c r="E363" s="14"/>
+      <c r="B363" s="18"/>
+      <c r="C363" s="16"/>
+      <c r="D363" s="10"/>
+      <c r="E363" s="11"/>
       <c r="F363" s="6"/>
       <c r="G363" s="6"/>
       <c r="H363" s="6"/>
@@ -10867,10 +10899,10 @@
     </row>
     <row r="364">
       <c r="A364" s="1"/>
-      <c r="B364" s="17"/>
-      <c r="C364" s="18"/>
-      <c r="D364" s="14"/>
-      <c r="E364" s="14"/>
+      <c r="B364" s="18"/>
+      <c r="C364" s="16"/>
+      <c r="D364" s="11"/>
+      <c r="E364" s="11"/>
       <c r="F364" s="6"/>
       <c r="G364" s="6"/>
       <c r="H364" s="6"/>
@@ -10895,10 +10927,10 @@
     </row>
     <row r="365">
       <c r="A365" s="1"/>
-      <c r="B365" s="17"/>
-      <c r="C365" s="18"/>
-      <c r="D365" s="14"/>
-      <c r="E365" s="14"/>
+      <c r="B365" s="18"/>
+      <c r="C365" s="16"/>
+      <c r="D365" s="11"/>
+      <c r="E365" s="11"/>
       <c r="F365" s="6"/>
       <c r="G365" s="6"/>
       <c r="H365" s="6"/>
@@ -10923,10 +10955,10 @@
     </row>
     <row r="366">
       <c r="A366" s="1"/>
-      <c r="B366" s="17"/>
-      <c r="C366" s="18"/>
-      <c r="D366" s="13"/>
-      <c r="E366" s="14"/>
+      <c r="B366" s="18"/>
+      <c r="C366" s="16"/>
+      <c r="D366" s="10"/>
+      <c r="E366" s="11"/>
       <c r="F366" s="6"/>
       <c r="G366" s="6"/>
       <c r="H366" s="6"/>
@@ -10951,10 +10983,10 @@
     </row>
     <row r="367">
       <c r="A367" s="1"/>
-      <c r="B367" s="17"/>
-      <c r="C367" s="18"/>
-      <c r="D367" s="13"/>
-      <c r="E367" s="14"/>
+      <c r="B367" s="18"/>
+      <c r="C367" s="16"/>
+      <c r="D367" s="10"/>
+      <c r="E367" s="11"/>
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
       <c r="H367" s="6"/>
@@ -10979,10 +11011,10 @@
     </row>
     <row r="368">
       <c r="A368" s="1"/>
-      <c r="B368" s="17"/>
-      <c r="C368" s="18"/>
-      <c r="D368" s="13"/>
-      <c r="E368" s="14"/>
+      <c r="B368" s="18"/>
+      <c r="C368" s="16"/>
+      <c r="D368" s="10"/>
+      <c r="E368" s="11"/>
       <c r="F368" s="6"/>
       <c r="G368" s="6"/>
       <c r="H368" s="6"/>
@@ -11007,10 +11039,10 @@
     </row>
     <row r="369">
       <c r="A369" s="1"/>
-      <c r="B369" s="17"/>
-      <c r="C369" s="18"/>
-      <c r="D369" s="14"/>
-      <c r="E369" s="14"/>
+      <c r="B369" s="18"/>
+      <c r="C369" s="16"/>
+      <c r="D369" s="11"/>
+      <c r="E369" s="11"/>
       <c r="F369" s="6"/>
       <c r="G369" s="6"/>
       <c r="H369" s="6"/>
@@ -11036,9 +11068,9 @@
     <row r="370">
       <c r="A370" s="1"/>
       <c r="B370" s="19"/>
-      <c r="C370" s="18"/>
-      <c r="D370" s="13"/>
-      <c r="E370" s="14"/>
+      <c r="C370" s="16"/>
+      <c r="D370" s="10"/>
+      <c r="E370" s="11"/>
       <c r="F370" s="6"/>
       <c r="G370" s="6"/>
       <c r="H370" s="6"/>
@@ -11063,10 +11095,10 @@
     </row>
     <row r="371">
       <c r="A371" s="1"/>
-      <c r="B371" s="17"/>
-      <c r="C371" s="18"/>
-      <c r="D371" s="14"/>
-      <c r="E371" s="14"/>
+      <c r="B371" s="18"/>
+      <c r="C371" s="16"/>
+      <c r="D371" s="11"/>
+      <c r="E371" s="11"/>
       <c r="F371" s="6"/>
       <c r="G371" s="6"/>
       <c r="H371" s="6"/>
@@ -11091,10 +11123,10 @@
     </row>
     <row r="372">
       <c r="A372" s="1"/>
-      <c r="B372" s="17"/>
-      <c r="C372" s="18"/>
-      <c r="D372" s="14"/>
-      <c r="E372" s="14"/>
+      <c r="B372" s="18"/>
+      <c r="C372" s="16"/>
+      <c r="D372" s="11"/>
+      <c r="E372" s="11"/>
       <c r="F372" s="6"/>
       <c r="G372" s="6"/>
       <c r="H372" s="6"/>
@@ -11120,9 +11152,9 @@
     <row r="373">
       <c r="A373" s="1"/>
       <c r="B373" s="23"/>
-      <c r="C373" s="18"/>
-      <c r="D373" s="14"/>
-      <c r="E373" s="14"/>
+      <c r="C373" s="16"/>
+      <c r="D373" s="11"/>
+      <c r="E373" s="11"/>
       <c r="F373" s="6"/>
       <c r="G373" s="6"/>
       <c r="H373" s="6"/>
@@ -11147,10 +11179,10 @@
     </row>
     <row r="374">
       <c r="A374" s="1"/>
-      <c r="B374" s="17"/>
-      <c r="C374" s="18"/>
-      <c r="D374" s="13"/>
-      <c r="E374" s="14"/>
+      <c r="B374" s="18"/>
+      <c r="C374" s="16"/>
+      <c r="D374" s="10"/>
+      <c r="E374" s="11"/>
       <c r="F374" s="6"/>
       <c r="G374" s="6"/>
       <c r="H374" s="6"/>
@@ -11175,10 +11207,10 @@
     </row>
     <row r="375">
       <c r="A375" s="1"/>
-      <c r="B375" s="17"/>
-      <c r="C375" s="18"/>
-      <c r="D375" s="14"/>
-      <c r="E375" s="14"/>
+      <c r="B375" s="18"/>
+      <c r="C375" s="16"/>
+      <c r="D375" s="11"/>
+      <c r="E375" s="11"/>
       <c r="F375" s="6"/>
       <c r="G375" s="6"/>
       <c r="H375" s="6"/>
@@ -11203,10 +11235,10 @@
     </row>
     <row r="376">
       <c r="A376" s="1"/>
-      <c r="B376" s="17"/>
-      <c r="C376" s="18"/>
-      <c r="D376" s="13"/>
-      <c r="E376" s="14"/>
+      <c r="B376" s="18"/>
+      <c r="C376" s="16"/>
+      <c r="D376" s="10"/>
+      <c r="E376" s="11"/>
       <c r="F376" s="6"/>
       <c r="G376" s="6"/>
       <c r="H376" s="6"/>
@@ -11231,10 +11263,10 @@
     </row>
     <row r="377">
       <c r="A377" s="1"/>
-      <c r="B377" s="17"/>
-      <c r="C377" s="18"/>
-      <c r="D377" s="13"/>
-      <c r="E377" s="14"/>
+      <c r="B377" s="18"/>
+      <c r="C377" s="16"/>
+      <c r="D377" s="10"/>
+      <c r="E377" s="11"/>
       <c r="F377" s="6"/>
       <c r="G377" s="6"/>
       <c r="H377" s="6"/>
@@ -11259,10 +11291,10 @@
     </row>
     <row r="378">
       <c r="A378" s="1"/>
-      <c r="B378" s="17"/>
-      <c r="C378" s="18"/>
-      <c r="D378" s="14"/>
-      <c r="E378" s="14"/>
+      <c r="B378" s="18"/>
+      <c r="C378" s="16"/>
+      <c r="D378" s="11"/>
+      <c r="E378" s="11"/>
       <c r="F378" s="6"/>
       <c r="G378" s="6"/>
       <c r="H378" s="6"/>
@@ -11287,10 +11319,10 @@
     </row>
     <row r="379">
       <c r="A379" s="1"/>
-      <c r="B379" s="17"/>
-      <c r="C379" s="18"/>
-      <c r="D379" s="14"/>
-      <c r="E379" s="14"/>
+      <c r="B379" s="18"/>
+      <c r="C379" s="16"/>
+      <c r="D379" s="11"/>
+      <c r="E379" s="11"/>
       <c r="F379" s="6"/>
       <c r="G379" s="6"/>
       <c r="H379" s="6"/>
@@ -11315,10 +11347,10 @@
     </row>
     <row r="380">
       <c r="A380" s="1"/>
-      <c r="B380" s="17"/>
-      <c r="C380" s="18"/>
-      <c r="D380" s="13"/>
-      <c r="E380" s="14"/>
+      <c r="B380" s="18"/>
+      <c r="C380" s="16"/>
+      <c r="D380" s="10"/>
+      <c r="E380" s="11"/>
       <c r="F380" s="6"/>
       <c r="G380" s="6"/>
       <c r="H380" s="6"/>
@@ -11343,10 +11375,10 @@
     </row>
     <row r="381">
       <c r="A381" s="1"/>
-      <c r="B381" s="17"/>
-      <c r="C381" s="18"/>
-      <c r="D381" s="13"/>
-      <c r="E381" s="14"/>
+      <c r="B381" s="18"/>
+      <c r="C381" s="16"/>
+      <c r="D381" s="10"/>
+      <c r="E381" s="11"/>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
       <c r="H381" s="6"/>
@@ -11371,10 +11403,10 @@
     </row>
     <row r="382">
       <c r="A382" s="1"/>
-      <c r="B382" s="17"/>
-      <c r="C382" s="18"/>
-      <c r="D382" s="14"/>
-      <c r="E382" s="14"/>
+      <c r="B382" s="18"/>
+      <c r="C382" s="16"/>
+      <c r="D382" s="11"/>
+      <c r="E382" s="11"/>
       <c r="F382" s="6"/>
       <c r="G382" s="6"/>
       <c r="H382" s="6"/>
@@ -11399,10 +11431,10 @@
     </row>
     <row r="383">
       <c r="A383" s="1"/>
-      <c r="B383" s="17"/>
-      <c r="C383" s="18"/>
-      <c r="D383" s="14"/>
-      <c r="E383" s="14"/>
+      <c r="B383" s="18"/>
+      <c r="C383" s="16"/>
+      <c r="D383" s="11"/>
+      <c r="E383" s="11"/>
       <c r="F383" s="6"/>
       <c r="G383" s="6"/>
       <c r="H383" s="6"/>
@@ -11427,8 +11459,8 @@
     </row>
     <row r="384">
       <c r="A384" s="24"/>
-      <c r="B384" s="17"/>
-      <c r="C384" s="18"/>
+      <c r="B384" s="18"/>
+      <c r="C384" s="16"/>
       <c r="D384" s="25"/>
       <c r="E384" s="26"/>
       <c r="F384" s="6"/>
@@ -28702,6 +28734,9 @@
       <c r="Z1000" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="F3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>